--- a/DailyNewsArticles.xlsx
+++ b/DailyNewsArticles.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b32b963c7ebb6a3/Documents/RyersonCapstoneFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9306A58F-6083-4515-983D-EDFB40A84979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9306A58F-6083-4515-983D-EDFB40A84979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDF54D53-1686-4BFC-95B5-EB99450D4C1B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Counts" sheetId="3" r:id="rId1"/>
-    <sheet name="Articles" sheetId="1" r:id="rId2"/>
-    <sheet name="TorontoStar Articles" sheetId="5" r:id="rId3"/>
+    <sheet name="TorontoStar Articles" sheetId="5" r:id="rId1"/>
+    <sheet name="Counts" sheetId="3" r:id="rId2"/>
+    <sheet name="Articles" sheetId="1" r:id="rId3"/>
     <sheet name="Portfolios" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Articles!$B$2:$E$565</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TorontoStar Articles'!$B$2:$E$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Articles!$B$2:$E$565</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TorontoStar Articles'!$A$1:$D$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="759">
   <si>
     <t>Row Labels</t>
   </si>
@@ -1884,6 +1884,441 @@
   </si>
   <si>
     <t>https://www.durhamradionews.com/archives/123672</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2019/12/31/with-291-people-shot-2019-is-closing-as-torontos-bloodiest-year-on-record-for-overall-gun-violence.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2019/12/31/two-men-shot-overnight-in-north-york.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2019/12/31/six-arrested-after-downtown-home-invasion-on-boxing-day.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/02/toronto-police-id-last-homicide-victim-of-2019-a-man-shot-on-new-years-eve-in-scarborough-parking-lot.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/02/siu-clears-police-after-77-year-old-man-killed-in-scarborough-crash.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/04/man-in-critical-condition-following-alleged-hit-and-run-at-jarvis-and-gerrard.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/06/mornelle-court-residents-took-our-community-back-from-gun-violence-now-grades-are-up-crime-is-down-and-police-services-are-taking-note.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/06/dog-rescued-after-she-was-abandoned-zipped-shut-in-suitcase-near-lambton-arena.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/06/crime-stoppers-stops-giving-rewards-says-will-invest-in-communities-instead.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/07/toronto-police-arrest-three-brampton-teens-after-a-spree-of-carjackings-across-gta.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/07/weekend-hit-and-run-deaths-raise-a-question-why-dont-toronto-police-name-traffic-victims.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/08/toronto-police-release-video-in-investigation-into-pedestrian-death.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/10/man-killed-outside-scarborough-building-was-heart-of-my-family-sister-says.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/10/toronto-police-arrest-man-after-photo-shows-swastika-drawn-on-patients-head-at-care-facility.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/11/man-has-life-threatening-injuries-after-overnight-shooting-in-scarborough.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/12/man-arrested-after-committing-indecent-act-inside-york-childrens-store-toronto-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/12/bloor-street-fire-closes-bridge-off-to-cars-pending-assessment.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/13/despite-touting-new-investments-torontos-proposed-2020-budget-has-little-new-money-for-youth-gun-violence-programs.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/editorials/2020/01/13/pedestrians-who-are-killed-are-not-statistics-we-should-know-their-names.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/13/toronto-police-charge-three-men-with-murder-in-new-years-eve-killing-of-clinton-phil-williams-43.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/13/man-arrested-after-four-firearms-found-in-vehicle-near-yonge-and-eglinton-last-month.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/13/toronto-doctor-accused-of-sexually-assaulting-woman-during-physical-exam.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/13/toronto-police-officer-charged-with-assault-accused-of-using-excessive-force-during-arrest.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/13/pretrial-motions-begin-in-tess-richey-murder-case.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/14/police-identify-woman-killed-in-scarborough-fire-as-maryna-kudzianiuk-49-saying-her-death-was-homicide.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/14/sentencing-hearing-adjourned-after-chair-girl-denies-posting-video-on-snapchat.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/15/man-charged-with-first-degree-murder-in-december-homicide-outside-scarborough-building.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/canada/2020/01/15/barry-and-honey-sherman-were-murdered-within-hours-of-arriving-home-toronto-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/16/prosecutor-hopes-to-confirm-trial-start-date-for-alek-minassian-driver-in-yonge-street-van-attack.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/canada/2020/01/16/food-delivery-people-targeted-in-string-of-robberies-in-east-toronto-police-says.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/16/brampton-homicide-victim-identified-as-woman-who-went-missing-in-toronto.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/16/teen-charged-after-hackers-target-toronto-cybersecurity-experts-in-50-million-scam.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/canada/2020/01/17/barry-and-honey-sherman-murder-investigation-has-interviewed-few-witnesses-in-almost-2-years-cops-are-focused-on-reviewing-video-and-data-to-catch-the-killer.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/17/toronto-firefighter-charged-after-girl-struck-at-pedestrian-crossover.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/17/pedestrian-suffers-critical-injuries-after-shes-struck-by-driver-in-north-york-parking-lot.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/18/the-proof-was-on-his-phone-the-whole-time-the-story-of-one-toronto-mans-wrongful-conv</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/18/police-report-250-collisions-as-snowstorm-hits-toronto.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/20/man-dead-after-shooting-near-markham-and-ellesmere.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/20/scarborough-homicide-victim-like-a-second-mother-says-family-friend.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/20/ex-husband-wanted-in-murder-of-28-year-old-heeral-patel-is-found-dead-in-toronto.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/star-columnists/2020/01/20/university-of-toronto-needs-to-do-more-when-it-comes-to-controversial-practice-of-handcuffing-of-students-seeking-help.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/15-year-old-victim-killed-near-woburn-high-school-was-completely-innocent.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/seven-toronto-teens-who-were-murdered-in-2019.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/politics/provincial/2020/01/21/ontarios-human-rights-watchdog-made-a-shortlist-for-new-commissioners-doug-ford-picked-two-of-his-own-instead.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/new-member-of-toronto-police-services-board-is-a-big-proponent-of-community-policing.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/ex-toronto-cop-james-forcillo-granted-full-parole-four-years-after-attempted-murder-conviction-in-death-of-sammy-yatim.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/pedestrian-struck-and-killed-by-truck-driver-in-a-hit-and-run-in-north-york.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/police-arrest-man-after-investigation-of-taxi-scam-involving-debit-cards.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/politics/provincial/2020/01/22/toronto-cop-named-to-human-rights-watchdog-by-premier-doug-ford-defends-controversial-appointment.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/22/woman-in-life-threatening-condition-after-stabbing-near-york-university.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/22/he-didnt-deserve-to-die-family-community-mourn-15-year-old-gunned-down-near-scarborough-school.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/contributors/2020/01/22/outrageous-to-grant-early-parole-to-police-officer-who-killed-sammy-yatim.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/21/olivia-nuamah-no-longer-head-of-pride-toronto.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/23/the-whole-street-is-left-in-sadness-54-year-old-woman-found-dead-in-oakwood-vaughan-home-was-victim-of-homicide-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/politics/provincial/2020/01/23/black-legal-clinic-fears-the-integrity-of-the-human-rights-commission-has-been-compromised-by-the-ford-government.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/24/police-charge-man-with-first-degree-murder-five-days-after-scarborough-apartment-fire.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/24/toronto-behavioural-therapist-charged-with-assault-of-eight-year-old-boy.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/24/accused-in-tess-richey-case-pleads-not-guilty-to-first-degree-murder.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/politics/provincial/2020/01/24/ford-defends-phenomenal-appointment-of-toronto-police-officer-to-human-rights-commission.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/24/ryerson-has-lost-confidence-in-student-union-drops-rsu-as-official-student-government.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/26/a-28-year-old-man-shot-in-scarborough-saturday-night-is-the-sixth-homicide-of-the-year.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/27/new-shift-schedule-gives-officers-more-time-for-crime-prevention-traffic-enforcement-toronto-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/contributors/thebigdebate/2020/01/28/is-the-assault-weapon-buyback-a-misguided-idea.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/27/police-seek-suspect-after-unknown-substance-placed-in-bottles-of-coke-ketchup-at-runnymede-and-annette-convenience-store.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/28/gta-mayors-and-police-chiefs-call-for-smarter-investment-on-unacceptable-youth-gun-violence.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/28/76-year-old-pedestrian-killed-in-west-end-collision.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/politics/federal/2020/01/28/facial-recognition-technology-poses-enormous-potential-for-abuse-ndp-says.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/01/29/toronto-police-charge-hamilton-man-in-alleged-phone-fraud-scam.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/29/closing-arguments-begin-today-in-trial-of-michael-and-christian-theriault-accused-of-beating-dafonte-miller.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/29/ford-government-has-floated-giving-itself-more-control-over-judicial-appointments-documents-reveal.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/30/trial-to-begin-today-for-man-accused-of-killing-tess-richey.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/30/tess-richeys-death-roiled-toronto-heres-what-you-need-to-know-as-the-trial-starts-for-man-accused-of-killing-her.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/03/toronto-rap-artist-among-three-killed-in-downtown-airbnb-friday-he-collaborated-with-a-local-rapper-killed-recently-in-bc.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/03/days-after-airbnb-killings-mayor-tory-pledges-6-million-in-new-money-for-youth-violence-prevention.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/03/man-shot-by-toronto-police-last-month-has-died-siu-says.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/03/whats-happened-so-far-at-the-trial-of-the-man-accused-of-tess-richeys-downtown-toronto-murder.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/01/city-calls-on-short-rental-operators-to-delist-ghost-hotels-after-triple-homicide-at-downtown-airbnb.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/world/us/2020/02/01/digital-footprints-lead-cops-to-arizona-fugitive-in-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/31/four-injured-possibly-two-in-life-threatening-condition-after-shooting-downtown.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/31/toronto-van-attack-driver-alek-minassians-trial-will-begin-april-6.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/01/31/sister-describes-familys-discovery-of-tess-richeys-body-at-murder-trial.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/04/initial-evidence-suggests-airbnb-shooting-was-a-murder-suicide-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/editorials/2020/02/04/toronto-council-should-back-plan-to-fight-youth-violence.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/04/tess-richeys-friend-describes-night-out-together-in-torontos-gay-village.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/05/scarboroughs-cedarbrae-collegiate-institute-in-lockdown-after-shooting.html</t>
+  </si>
+  <si>
+    <t>Toronto Star: Undercover cops discussed Magic: The Gathering to convince accused killer to describe Tess Richey’s last hours, trial hears</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/06/man-sustains-life-altering-injuries-after-he-is-stabbed-with-scissors-on-ttc-bus.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/06/man-accused-of-abducting-toddler-and-fleeing-to-the-us-in-1987-returns-to-toronto-to-face-charge.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/06/toronto-police-had-no-right-to-seize-hidden-bedside-camera-from-airbnb-condo-judge-rules.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/06/car-crash-in-scarborough-leaves-girl-15-with-life-threatening-injuries.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/07/toronto-police-grieves-loss-of-veteran-police-officer.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/07/toronto-police-seeking-suv-driver-after-death-of-93-year-old-woman-in-leslieville.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/07/one-man-in-life-threatening-condition-after-shooting-in-etobicoke.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/07/york-university-instructor-charged-with-sexual-assault-on-ttc-after-viral-social-media-post.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/07/social-media-can-empower-women-to-speak-out-about-sexual-violence-viral-social-post-shows.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/07/undercover-cop-has-flawed-memory-defence-argues-at-tess-richey-murder-trial.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/08/toronto-police-identify-29-year-old-man-as-victim-of-etobicoke-shooting.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/10/man-facing-24-charges-after-road-rage-incident-involving-pedestrian.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/world/us/2020/02/10/state-to-review-la-police-use-of-california-gang-database.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/02/11/toronto-police-charge-two-people-with-murder-in-death-of-deandre-campbell-kelly.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/11/man-who-escaped-toronto-psychiatric-hospital-found-say-police.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/13/toronto-police-used-clearview-ai-an-incredibly-controversial-facial-recognition-tool.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/politics/provincial/2020/02/13/ontario-human-rights-commission-will-remain-independent-attorney-general-says.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/02/13/toronto-police-seeking-man-who-harassed-assaulted-woman-for-wearing-mask.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/life/opinion/2020/02/14/its-been-two-years-since-bruce-mcarthurs-arrest-has-anything-changed-in-torontos-gay-community.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/14/peel-and-halton-police-reveal-they-too-used-controversial-facial-recognition-tool.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/14/man-in-serious-condition-after-he-was-shot-downtown.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/14/police-seek-suspect-in-firearm-investigation.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/editorials/2020/02/16/toronto-police-need-to-spend-more-time-enforcing-traffic-laws.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/18/toronto-police-board-to-mull-donation-to-purchase-new-armoured-vehicle.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/18/police-called-to-premiers-home-to-investigate-suspicious-package.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/18/contractors-association-behind-offer-to-donate-armoured-vehicle-to-toronto-police.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/17/wetsuweten-solidarity-protest-weaves-through-toronto.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/02/19/man-charged-after-woman-wearing-mask-on-ttc-bus-was-assaulted.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/city_hall/2020/02/19/toronto-must-do-more-to-respond-to-mmiwg-inquirys-calls-for-justice-city-report-says.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/19/contractors-association-withdraws-offer-to-fund-new-armoured-car-for-toronto-police-emergency-task-force.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/20/did-police-break-the-law-by-using-controversial-face-recognition-app.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/20/video-shows-schlatter-richey-walking-together-on-night-she-went-missing.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/21/one-dies-in-scarborough-shooting.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/21/judge-tosses-heroin-case-after-finding-toronto-cop-repeatedly-misled-court-ignored-a-subpoena-retired-and-left-for-italy.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/21/schattlers-lawyers-draw-attention-to-other-man-seen-on-night-tess-richey-disappeared.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/20/privacy-commissioners-launch-investigation-into-facial-recognition-technology-tested-by-toronto-police-other-gta-forces.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/22/man-charged-with-first-degree-murder-after-fatal-hammer-attack-in-scarborough.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/22/no-one-injured-after-shooting-in-the-bridle-path-toronto-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/letters_to_the_editors/2020/02/22/would-enforcing-traffic-laws-make-our-streets-safer.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/22/police-chiefs-say-facial-recognition-needs-more-review-but-cops-should-be-able-to-use-ai.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/23/woman-in-her-40s-in-serious-condition-following-shooting-in-toronto-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/23/man-in-40s-suffers-serious-injuries-after-shooting-in-scarborough.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/opinion/editorials/2020/02/24/we-need-a-stop-to-facial-fingerprinting-by-police.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/02/24/one-dead-two-injured-in-downsview-stabbing-toronto-police-say.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/24/toronto-police-seeking-witnesses-after-fatal-collision-sunday.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/crime/2020/02/25/17-year-old-boy-charged-with-murder-in-downsview-triple-stabbing.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/25/toronto-man-faces-terrorism-charge-after-deadly-hammer-attack.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/26/go-transit-tracks-open-in-toronto-as-police-remove-and-arrest-demonstrators-overnight.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/25/toronto-feels-the-pain-of-wetsuweten-solidarity-blockades-as-protesters-target-rail-lines.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/25/sometimes-career-suicides-better-than-the-other-one.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/26/man-pleads-guilty-in-toronto-polices-largest-gun-seizure-he-was-caught-with-60-handguns-smuggled-from-florida.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/26/north-york-woman-killed-in-stabbing-at-spa-was-a-loving-mother-who-had-contagious-smile.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/26/whats-happened-so-far-at-the-trial-of-the-man-accused-of-tess-richeys-downtown-toronto-murder.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/city_hall/2020/02/27/toronto-police-warn-of-potentially-deadly-drug-mixture-after-spike-in-overdoses.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/27/in-a-few-seconds-of-grainy-video-a-toronto-jury-sees-tess-richeys-last-public-moments-with-an-accused-killer.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/27/pilot-of-ornge-emergency-helicopter-injured-by-green-laser.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/27/wilson-subway-station-evacuated-due-to-suspicious-package.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/canada/2020/02/27/facial-recognition-app-clearview-ai-has-been-used-far-more-widely-in-canada-than-previously-known.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2020/02/28/ttc-rider-struck-by-driver-after-exiting-streetcar-on-king-street.html</t>
   </si>
 </sst>
 </file>
@@ -6011,7 +6446,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{760191A7-3FB4-4069-A49A-A499E20608E1}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{760191A7-3FB4-4069-A49A-A499E20608E1}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -6537,6 +6972,2727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFEFABA-B6C7-48A0-98BB-F4A89C68BB38}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:L148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="147.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>606</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>606</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>606</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>606</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>606</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>606</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>606</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>606</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>606</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>606</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>606</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>606</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>606</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>606</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>606</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>606</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>606</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>606</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>606</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>606</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>606</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>606</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>606</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>606</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>606</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>606</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>606</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>606</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>606</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>606</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>606</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>606</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>606</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>606</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>606</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>606</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>606</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>606</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>606</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>606</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>606</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>606</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>606</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>606</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>606</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>606</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>606</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>606</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>606</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>606</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>606</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>606</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>606</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>606</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>606</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>606</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>606</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>606</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>606</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>606</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>606</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>606</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>606</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>606</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>606</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>606</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>606</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>606</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>606</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>606</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>606</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>606</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>606</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>606</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>606</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>606</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>606</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>606</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>606</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>606</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>606</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>606</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>606</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>606</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>606</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>606</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>606</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>606</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>606</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>606</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>606</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>606</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>606</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>606</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>606</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>606</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>606</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>606</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>606</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>606</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>606</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>606</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>606</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>606</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>606</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>606</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>606</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>606</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>606</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>606</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>606</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>606</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>606</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>606</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>606</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>606</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D148" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <conditionalFormatting sqref="D2:D148">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=":">
+      <formula>NOT(ISERROR(SEARCH(":",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.thestar.com/news/gta/2019/12/31/with-291-people-shot-2019-is-closing-as-torontos-bloodiest-year-on-record-for-overall-gun-violence.html" xr:uid="{1AF61C7B-01E3-4ABA-BF21-719EDCD3ACB8}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.thestar.com/news/crime/2019/12/31/two-men-shot-overnight-in-north-york.html" xr:uid="{8610E8B4-A152-4F65-9069-C3350708F1C4}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.thestar.com/news/gta/2019/12/31/six-arrested-after-downtown-home-invasion-on-boxing-day.html" xr:uid="{B1179910-B363-44CB-A022-9F79EA386966}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.thestar.com/news/crime/2020/01/02/toronto-police-id-last-homicide-victim-of-2019-a-man-shot-on-new-years-eve-in-scarborough-parking-lot.html" xr:uid="{19E95C1F-CDA8-469F-892D-CEE489E226C8}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.thestar.com/news/gta/2020/01/02/siu-clears-police-after-77-year-old-man-killed-in-scarborough-crash.html" xr:uid="{BF63271B-097E-46B4-8878-93DDB42DE0FF}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.thestar.com/news/gta/2020/01/04/man-in-critical-condition-following-alleged-hit-and-run-at-jarvis-and-gerrard.html" xr:uid="{8CAF9C84-7896-408D-8514-2D151E5E0451}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.thestar.com/news/gta/2020/01/06/mornelle-court-residents-took-our-community-back-from-gun-violence-now-grades-are-up-crime-is-down-and-police-services-are-taking-note.html" xr:uid="{AE835C6E-DD2E-4890-A822-60DA76E1465E}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www.thestar.com/news/gta/2020/01/06/dog-rescued-after-she-was-abandoned-zipped-shut-in-suitcase-near-lambton-arena.html" xr:uid="{B3707E6C-0CDB-4DE9-97F0-C6DA581A7838}"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://www.thestar.com/news/gta/2020/01/06/crime-stoppers-stops-giving-rewards-says-will-invest-in-communities-instead.html" xr:uid="{975E52E4-3235-4608-88DE-D316002FB3FE}"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://www.thestar.com/news/crime/2020/01/07/toronto-police-arrest-three-brampton-teens-after-a-spree-of-carjackings-across-gta.html" xr:uid="{F0E9EF36-88D6-4B56-AF4F-835554709132}"/>
+    <hyperlink ref="D14" r:id="rId11" display="https://www.thestar.com/news/gta/2020/01/07/weekend-hit-and-run-deaths-raise-a-question-why-dont-toronto-police-name-traffic-victims.html" xr:uid="{1CE5D9F9-E1C3-4D54-A776-DADFAB8532CC}"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://www.thestar.com/news/gta/2020/01/08/toronto-police-release-video-in-investigation-into-pedestrian-death.html" xr:uid="{1CB0C20B-7805-404F-8641-7A789111C03D}"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://www.thestar.com/news/gta/2020/01/10/man-killed-outside-scarborough-building-was-heart-of-my-family-sister-says.html" xr:uid="{E77A1F1B-EF11-42B6-BA91-CEB69514B3EF}"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://www.thestar.com/news/gta/2020/01/10/toronto-police-arrest-man-after-photo-shows-swastika-drawn-on-patients-head-at-care-facility.html" xr:uid="{82001925-2562-4B26-B97F-2362B49C59B9}"/>
+    <hyperlink ref="D18" r:id="rId15" display="https://www.thestar.com/news/gta/2020/01/11/man-has-life-threatening-injuries-after-overnight-shooting-in-scarborough.html" xr:uid="{70D941A9-AE51-4761-B2E2-9F0596231CDE}"/>
+    <hyperlink ref="D19" r:id="rId16" display="https://www.thestar.com/news/gta/2020/01/12/man-arrested-after-committing-indecent-act-inside-york-childrens-store-toronto-police-say.html" xr:uid="{30C97EDE-274A-4731-AFFB-C6437DC6FAE2}"/>
+    <hyperlink ref="D20" r:id="rId17" display="https://www.thestar.com/news/gta/2020/01/12/bloor-street-fire-closes-bridge-off-to-cars-pending-assessment.html" xr:uid="{A87F7B10-9758-482F-920E-965B019C46C6}"/>
+    <hyperlink ref="D21" r:id="rId18" display="https://www.thestar.com/news/gta/2020/01/13/despite-touting-new-investments-torontos-proposed-2020-budget-has-little-new-money-for-youth-gun-violence-programs.html" xr:uid="{D4C76EA5-B226-4381-A0CF-D34F9B8EF49F}"/>
+    <hyperlink ref="D22" r:id="rId19" display="https://www.thestar.com/opinion/editorials/2020/01/13/pedestrians-who-are-killed-are-not-statistics-we-should-know-their-names.html" xr:uid="{E4C0DD50-6293-4D07-88A7-55ADF23B3F0A}"/>
+    <hyperlink ref="D23" r:id="rId20" display="https://www.thestar.com/news/gta/2020/01/13/toronto-police-charge-three-men-with-murder-in-new-years-eve-killing-of-clinton-phil-williams-43.html" xr:uid="{8CE0FC58-83DE-4814-87BD-64E1A5811A2A}"/>
+    <hyperlink ref="D24" r:id="rId21" display="https://www.thestar.com/news/crime/2020/01/13/man-arrested-after-four-firearms-found-in-vehicle-near-yonge-and-eglinton-last-month.html" xr:uid="{04104381-F73F-4E19-9EA0-406E9EB7C970}"/>
+    <hyperlink ref="D25" r:id="rId22" display="https://www.thestar.com/news/crime/2020/01/13/toronto-doctor-accused-of-sexually-assaulting-woman-during-physical-exam.html" xr:uid="{1020DE59-30C2-48D1-8E49-371AAD3A3C1E}"/>
+    <hyperlink ref="D26" r:id="rId23" display="https://www.thestar.com/news/gta/2020/01/13/toronto-police-officer-charged-with-assault-accused-of-using-excessive-force-during-arrest.html" xr:uid="{F0BC0037-B549-47F5-A958-44C9C11DAE7B}"/>
+    <hyperlink ref="D27" r:id="rId24" display="https://www.thestar.com/news/gta/2020/01/13/pretrial-motions-begin-in-tess-richey-murder-case.html" xr:uid="{510AFC7D-AF39-4453-9A76-F73F598787E1}"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://www.thestar.com/news/gta/2020/01/14/police-identify-woman-killed-in-scarborough-fire-as-maryna-kudzianiuk-49-saying-her-death-was-homicide.html" xr:uid="{DF1CA9A4-DE9F-491B-B5A5-ADD8005D0C26}"/>
+    <hyperlink ref="D29" r:id="rId26" display="https://www.thestar.com/news/gta/2020/01/14/sentencing-hearing-adjourned-after-chair-girl-denies-posting-video-on-snapchat.html" xr:uid="{90B52535-FD26-49EA-8BB7-F45DE0DFF5EC}"/>
+    <hyperlink ref="D30" r:id="rId27" display="https://www.thestar.com/news/crime/2020/01/15/man-charged-with-first-degree-murder-in-december-homicide-outside-scarborough-building.html" xr:uid="{E337BF1E-DF3C-454C-95A5-25AB492BAC46}"/>
+    <hyperlink ref="D31" r:id="rId28" display="https://www.thestar.com/news/canada/2020/01/15/barry-and-honey-sherman-were-murdered-within-hours-of-arriving-home-toronto-police-say.html" xr:uid="{E934B801-6CBA-4545-9339-0C4B005D1B6F}"/>
+    <hyperlink ref="D32" r:id="rId29" display="https://www.thestar.com/news/gta/2020/01/16/prosecutor-hopes-to-confirm-trial-start-date-for-alek-minassian-driver-in-yonge-street-van-attack.html" xr:uid="{FCF8E198-8E74-464E-865D-7BF2BEE0E090}"/>
+    <hyperlink ref="D33" r:id="rId30" display="https://www.thestar.com/news/canada/2020/01/16/food-delivery-people-targeted-in-string-of-robberies-in-east-toronto-police-says.html" xr:uid="{48372D87-6361-4087-B7EC-7FABCE49F799}"/>
+    <hyperlink ref="D34" r:id="rId31" display="https://www.thestar.com/news/crime/2020/01/16/brampton-homicide-victim-identified-as-woman-who-went-missing-in-toronto.html" xr:uid="{7BBB6297-5136-4B78-85B9-5CEDF389BBFD}"/>
+    <hyperlink ref="D35" r:id="rId32" display="https://www.thestar.com/news/gta/2020/01/16/teen-charged-after-hackers-target-toronto-cybersecurity-experts-in-50-million-scam.html" xr:uid="{D2BBC8A3-FCD8-45FD-8A69-ED928597AF3C}"/>
+    <hyperlink ref="D36" r:id="rId33" display="https://www.thestar.com/news/canada/2020/01/17/barry-and-honey-sherman-murder-investigation-has-interviewed-few-witnesses-in-almost-2-years-cops-are-focused-on-reviewing-video-and-data-to-catch-the-killer.html" xr:uid="{F4D7FD48-1243-43F8-BF4C-C787ABB4E1EB}"/>
+    <hyperlink ref="D37" r:id="rId34" display="https://www.thestar.com/news/gta/2020/01/17/toronto-firefighter-charged-after-girl-struck-at-pedestrian-crossover.html" xr:uid="{3A80B26F-D211-43D2-A30D-7628416C47BF}"/>
+    <hyperlink ref="D38" r:id="rId35" display="https://www.thestar.com/news/gta/2020/01/17/pedestrian-suffers-critical-injuries-after-shes-struck-by-driver-in-north-york-parking-lot.html" xr:uid="{0EB1DEED-5CEB-47E4-A9C3-269391AD400D}"/>
+    <hyperlink ref="D39" r:id="rId36" display="https://www.thestar.com/news/gta/2020/01/18/the-proof-was-on-his-phone-the-whole-time-the-story-of-one-toronto-mans-wrongful-conv" xr:uid="{A4E7179A-1C77-42B0-8421-336B4B42264C}"/>
+    <hyperlink ref="D40" r:id="rId37" display="https://www.thestar.com/news/gta/2020/01/18/police-report-250-collisions-as-snowstorm-hits-toronto.html" xr:uid="{D5A0B4B1-1DF0-4757-AB77-E810267539AB}"/>
+    <hyperlink ref="D41" r:id="rId38" display="https://www.thestar.com/news/gta/2020/01/20/man-dead-after-shooting-near-markham-and-ellesmere.html" xr:uid="{66E09753-3CC6-4214-84D9-D0E9F7ACCD41}"/>
+    <hyperlink ref="D42" r:id="rId39" display="https://www.thestar.com/news/crime/2020/01/20/scarborough-homicide-victim-like-a-second-mother-says-family-friend.html" xr:uid="{82BB6FD8-3393-4997-98C4-765C4C265DE1}"/>
+    <hyperlink ref="D43" r:id="rId40" display="https://www.thestar.com/news/gta/2020/01/20/ex-husband-wanted-in-murder-of-28-year-old-heeral-patel-is-found-dead-in-toronto.html" xr:uid="{2F926EB4-DAB3-4656-B116-1D6A2993EF29}"/>
+    <hyperlink ref="D44" r:id="rId41" display="https://www.thestar.com/opinion/star-columnists/2020/01/20/university-of-toronto-needs-to-do-more-when-it-comes-to-controversial-practice-of-handcuffing-of-students-seeking-help.html" xr:uid="{F741F708-1334-46D7-98AE-8B99E319E7D2}"/>
+    <hyperlink ref="D45" r:id="rId42" display="https://www.thestar.com/news/gta/2020/01/21/15-year-old-victim-killed-near-woburn-high-school-was-completely-innocent.html" xr:uid="{922A9F64-8D28-4EBC-97E2-7131445A6314}"/>
+    <hyperlink ref="D46" r:id="rId43" display="https://www.thestar.com/news/gta/2020/01/21/seven-toronto-teens-who-were-murdered-in-2019.html" xr:uid="{7584D330-00FA-4A4C-B443-A782D6549426}"/>
+    <hyperlink ref="D47" r:id="rId44" display="https://www.thestar.com/politics/provincial/2020/01/21/ontarios-human-rights-watchdog-made-a-shortlist-for-new-commissioners-doug-ford-picked-two-of-his-own-instead.html" xr:uid="{5948D170-94AD-4F69-ABED-91373E7B5E3C}"/>
+    <hyperlink ref="D48" r:id="rId45" display="https://www.thestar.com/news/gta/2020/01/21/new-member-of-toronto-police-services-board-is-a-big-proponent-of-community-policing.html" xr:uid="{D5D680F2-1E1D-49F0-8F44-1EA1AAA6340A}"/>
+    <hyperlink ref="D49" r:id="rId46" display="https://www.thestar.com/news/gta/2020/01/21/ex-toronto-cop-james-forcillo-granted-full-parole-four-years-after-attempted-murder-conviction-in-death-of-sammy-yatim.html" xr:uid="{4729CAF0-F8D1-4B24-8BFF-EA12AB79E24C}"/>
+    <hyperlink ref="D50" r:id="rId47" display="https://www.thestar.com/news/gta/2020/01/21/pedestrian-struck-and-killed-by-truck-driver-in-a-hit-and-run-in-north-york.html" xr:uid="{0C68AE35-555B-40BC-BD90-55B8D738D5EF}"/>
+    <hyperlink ref="D51" r:id="rId48" display="https://www.thestar.com/news/gta/2020/01/21/police-arrest-man-after-investigation-of-taxi-scam-involving-debit-cards.html" xr:uid="{5608AC95-3AE2-4CEE-A30B-A8DEB1B1353A}"/>
+    <hyperlink ref="D52" r:id="rId49" display="https://www.thestar.com/politics/provincial/2020/01/22/toronto-cop-named-to-human-rights-watchdog-by-premier-doug-ford-defends-controversial-appointment.html" xr:uid="{C4FC4811-2E69-4F61-9D93-F2BC2010748A}"/>
+    <hyperlink ref="D53" r:id="rId50" display="https://www.thestar.com/news/gta/2020/01/22/woman-in-life-threatening-condition-after-stabbing-near-york-university.html" xr:uid="{8DEB72EA-6CD0-4991-9B79-44AAB8B2B27B}"/>
+    <hyperlink ref="D54" r:id="rId51" display="https://www.thestar.com/news/gta/2020/01/22/he-didnt-deserve-to-die-family-community-mourn-15-year-old-gunned-down-near-scarborough-school.html" xr:uid="{1916CEE0-DFFC-4CD6-99D7-19F68040C879}"/>
+    <hyperlink ref="D55" r:id="rId52" display="https://www.thestar.com/opinion/contributors/2020/01/22/outrageous-to-grant-early-parole-to-police-officer-who-killed-sammy-yatim.html" xr:uid="{DC5C88BF-ED93-4D3E-88D5-8BD5CEFD0172}"/>
+    <hyperlink ref="D56" r:id="rId53" display="https://www.thestar.com/news/gta/2020/01/21/olivia-nuamah-no-longer-head-of-pride-toronto.html" xr:uid="{9496C670-4615-4F0F-A922-EEC9D0213FDB}"/>
+    <hyperlink ref="D57" r:id="rId54" display="https://www.thestar.com/news/gta/2020/01/23/the-whole-street-is-left-in-sadness-54-year-old-woman-found-dead-in-oakwood-vaughan-home-was-victim-of-homicide-police-say.html" xr:uid="{CE5A6448-1B5B-4ED3-9658-186791420256}"/>
+    <hyperlink ref="D58" r:id="rId55" display="https://www.thestar.com/politics/provincial/2020/01/23/black-legal-clinic-fears-the-integrity-of-the-human-rights-commission-has-been-compromised-by-the-ford-government.html" xr:uid="{E2542081-DA56-43FE-94B0-D326CA7390D0}"/>
+    <hyperlink ref="D59" r:id="rId56" display="https://www.thestar.com/news/crime/2020/01/24/police-charge-man-with-first-degree-murder-five-days-after-scarborough-apartment-fire.html" xr:uid="{62194D86-27F7-466C-B837-A91400FE03C3}"/>
+    <hyperlink ref="D60" r:id="rId57" display="https://www.thestar.com/news/gta/2020/01/24/toronto-behavioural-therapist-charged-with-assault-of-eight-year-old-boy.html" xr:uid="{4F9CFAD3-A47F-459D-A09C-2C469B827849}"/>
+    <hyperlink ref="D61" r:id="rId58" display="https://www.thestar.com/news/gta/2020/01/24/accused-in-tess-richey-case-pleads-not-guilty-to-first-degree-murder.html" xr:uid="{28F28774-10A6-4549-A8AB-6E564C03B9E8}"/>
+    <hyperlink ref="D62" r:id="rId59" display="https://www.thestar.com/politics/provincial/2020/01/24/ford-defends-phenomenal-appointment-of-toronto-police-officer-to-human-rights-commission.html" xr:uid="{FCF7E2AC-2EC8-4D51-9E57-7278DFB4B924}"/>
+    <hyperlink ref="D63" r:id="rId60" display="https://www.thestar.com/news/gta/2020/01/24/ryerson-has-lost-confidence-in-student-union-drops-rsu-as-official-student-government.html" xr:uid="{6EDFF559-0BB0-408A-B313-ACFCC921FFE8}"/>
+    <hyperlink ref="D64" r:id="rId61" display="https://www.thestar.com/news/gta/2020/01/26/a-28-year-old-man-shot-in-scarborough-saturday-night-is-the-sixth-homicide-of-the-year.html" xr:uid="{1B667004-C1D7-432B-84CC-98977FA3DE2D}"/>
+    <hyperlink ref="D65" r:id="rId62" display="https://www.thestar.com/news/gta/2020/01/27/new-shift-schedule-gives-officers-more-time-for-crime-prevention-traffic-enforcement-toronto-police-say.html" xr:uid="{35D2A589-D59A-48A0-88CE-9F9AC1B7798A}"/>
+    <hyperlink ref="D66" r:id="rId63" display="https://www.thestar.com/opinion/contributors/thebigdebate/2020/01/28/is-the-assault-weapon-buyback-a-misguided-idea.html" xr:uid="{E091E554-10F3-49FA-A9EC-91172F6C8564}"/>
+    <hyperlink ref="D67" r:id="rId64" display="https://www.thestar.com/news/gta/2020/01/27/police-seek-suspect-after-unknown-substance-placed-in-bottles-of-coke-ketchup-at-runnymede-and-annette-convenience-store.html" xr:uid="{9D4D5AB0-1595-42A1-A742-9A820A7EACF7}"/>
+    <hyperlink ref="D68" r:id="rId65" display="https://www.thestar.com/news/gta/2020/01/28/gta-mayors-and-police-chiefs-call-for-smarter-investment-on-unacceptable-youth-gun-violence.html" xr:uid="{00529F06-A41C-4A0D-A62D-A87ED4EECE86}"/>
+    <hyperlink ref="D69" r:id="rId66" display="https://www.thestar.com/news/gta/2020/01/28/76-year-old-pedestrian-killed-in-west-end-collision.html" xr:uid="{7DCA92A0-D0EA-498A-B22C-AF649DD9D6C0}"/>
+    <hyperlink ref="D70" r:id="rId67" display="https://www.thestar.com/politics/federal/2020/01/28/facial-recognition-technology-poses-enormous-potential-for-abuse-ndp-says.html" xr:uid="{53FBBB82-6811-4516-BBE5-323E3E87760D}"/>
+    <hyperlink ref="D71" r:id="rId68" display="https://www.thestar.com/news/crime/2020/01/29/toronto-police-charge-hamilton-man-in-alleged-phone-fraud-scam.html" xr:uid="{7C8C2791-B144-4EF9-94CC-D9D6510D7EA9}"/>
+    <hyperlink ref="D72" r:id="rId69" display="https://www.thestar.com/news/gta/2020/01/29/closing-arguments-begin-today-in-trial-of-michael-and-christian-theriault-accused-of-beating-dafonte-miller.html" xr:uid="{80B64758-045D-4A4A-80F0-9711ECE40C9B}"/>
+    <hyperlink ref="D73" r:id="rId70" display="https://www.thestar.com/news/gta/2020/01/29/ford-government-has-floated-giving-itself-more-control-over-judicial-appointments-documents-reveal.html" xr:uid="{9CAAD5F7-CE12-4722-B232-FC66AF3CF8D5}"/>
+    <hyperlink ref="D74" r:id="rId71" display="https://www.thestar.com/news/gta/2020/01/30/trial-to-begin-today-for-man-accused-of-killing-tess-richey.html" xr:uid="{422ACC18-CDA5-4B38-A735-5D2B2139BB77}"/>
+    <hyperlink ref="D75" r:id="rId72" display="https://www.thestar.com/news/gta/2020/01/30/tess-richeys-death-roiled-toronto-heres-what-you-need-to-know-as-the-trial-starts-for-man-accused-of-killing-her.html" xr:uid="{F4DF59A8-1DEC-40CA-9E1A-72F84774CDFA}"/>
+    <hyperlink ref="D76" r:id="rId73" xr:uid="{27B55D50-324E-43D5-83AE-4D8F114D0CE7}"/>
+    <hyperlink ref="D77" r:id="rId74" xr:uid="{C8C7D32D-A363-46CB-866E-04542CCF9E83}"/>
+    <hyperlink ref="D78" r:id="rId75" xr:uid="{756DC4D3-4018-4BA7-96D8-727043EEF647}"/>
+    <hyperlink ref="D79" r:id="rId76" xr:uid="{E1166A54-6CB5-4A96-8E30-26961F6447FE}"/>
+    <hyperlink ref="D80" r:id="rId77" xr:uid="{C7BD2CF7-DA17-4ABC-88CE-A2994715FD01}"/>
+    <hyperlink ref="D81" r:id="rId78" xr:uid="{9DF37D2B-1FFC-4074-AC3C-96C099EE25FE}"/>
+    <hyperlink ref="D82" r:id="rId79" xr:uid="{4BC6BB75-EB6D-4DC3-A080-52C8C5CD8D9D}"/>
+    <hyperlink ref="D83" r:id="rId80" xr:uid="{3339F8DC-02EA-41FA-B835-56069C85E2DF}"/>
+    <hyperlink ref="D84" r:id="rId81" xr:uid="{5C5A8D75-C676-4303-8828-45547A844265}"/>
+    <hyperlink ref="D85" r:id="rId82" xr:uid="{CDFCDFB4-65E4-493C-B430-E708DD2025D6}"/>
+    <hyperlink ref="D86" r:id="rId83" xr:uid="{AE02DA29-90C4-4A26-BF74-08A4AA95C453}"/>
+    <hyperlink ref="D87" r:id="rId84" xr:uid="{856FB2A2-E117-4C4D-A863-F790CAA70E37}"/>
+    <hyperlink ref="D88" r:id="rId85" xr:uid="{5EA1B039-4DB3-4DBC-9E2B-8DA23CA4533A}"/>
+    <hyperlink ref="D89" r:id="rId86" xr:uid="{EB996359-4915-4DF7-8538-6B8F46B90081}"/>
+    <hyperlink ref="D90" r:id="rId87" xr:uid="{11167A8C-FE10-40D2-BC2A-2D1515326841}"/>
+    <hyperlink ref="D91" r:id="rId88" xr:uid="{D0871398-45E1-425B-BFFF-F298A32A0F87}"/>
+    <hyperlink ref="D92" r:id="rId89" xr:uid="{A0E2F19C-C806-4A36-80FE-EAFDA050C6F9}"/>
+    <hyperlink ref="D93" r:id="rId90" xr:uid="{CDE43470-C943-406B-8730-A8E7DB00E43A}"/>
+    <hyperlink ref="D94" r:id="rId91" xr:uid="{E7DF5EC0-3C52-4E72-8AD3-8CB7BEDC84C8}"/>
+    <hyperlink ref="D95" r:id="rId92" xr:uid="{85FF8931-2BBF-4E02-B3E5-85C8F2807367}"/>
+    <hyperlink ref="D96" r:id="rId93" xr:uid="{014D4E9F-57AD-4440-B7A3-AB205A10CBDB}"/>
+    <hyperlink ref="D97" r:id="rId94" xr:uid="{615EEB29-ECE8-4ABD-BC4F-2DBB1AD699CB}"/>
+    <hyperlink ref="D98" r:id="rId95" xr:uid="{5C14E0C1-0522-44E5-A868-82586806DDEC}"/>
+    <hyperlink ref="D99" r:id="rId96" xr:uid="{FFFE8914-FB81-445E-AA20-BC154DF13A7C}"/>
+    <hyperlink ref="D100" r:id="rId97" xr:uid="{B005B92D-6681-439F-A806-CC4ACD02F09D}"/>
+    <hyperlink ref="D101" r:id="rId98" xr:uid="{D9E14557-9D10-4357-B35E-6AB86D5E0134}"/>
+    <hyperlink ref="D102" r:id="rId99" xr:uid="{E370C7ED-3F8D-4A9D-9480-08A96B1236D1}"/>
+    <hyperlink ref="D103" r:id="rId100" xr:uid="{2849E6EF-7E73-4C69-B782-3F8E0F833799}"/>
+    <hyperlink ref="D104" r:id="rId101" xr:uid="{0D2C701B-3583-4E12-AAAB-EBF9357A644B}"/>
+    <hyperlink ref="D105" r:id="rId102" xr:uid="{D542AE4E-FAC6-4195-8FAE-E972B8BA8C2C}"/>
+    <hyperlink ref="D106" r:id="rId103" xr:uid="{1107E1EF-789E-4DF0-962E-59590E20B13A}"/>
+    <hyperlink ref="D107" r:id="rId104" xr:uid="{66F89C1C-F965-415F-908C-89DC816B4A16}"/>
+    <hyperlink ref="D108" r:id="rId105" xr:uid="{3C9F560E-CBD3-4F0E-9A00-E84C3E8FB545}"/>
+    <hyperlink ref="D109" r:id="rId106" xr:uid="{1E3F7345-4FAC-481B-9933-CCFEB7AB04D8}"/>
+    <hyperlink ref="D110" r:id="rId107" xr:uid="{42E42022-F650-4429-B42A-ECFA794E5610}"/>
+    <hyperlink ref="D111" r:id="rId108" xr:uid="{7B429E14-A75F-45B1-9456-F20E4374EF50}"/>
+    <hyperlink ref="D112" r:id="rId109" xr:uid="{0A9FE779-1E7E-41AE-85AF-A642CAA8B5FD}"/>
+    <hyperlink ref="D113" r:id="rId110" display="https://www.thestar.com/news/gta/2020/02/18/toronto-police-board-to-mull-donation-to-purchase-new-armoured-vehicle.html" xr:uid="{CD77BEAC-70AF-4953-9BBD-9BE755D940B2}"/>
+    <hyperlink ref="D114" r:id="rId111" xr:uid="{8A0FA8C4-0A04-4E3E-B72E-2BE5ADCF7C2C}"/>
+    <hyperlink ref="D115" r:id="rId112" xr:uid="{B36DE44A-FE2B-4E7C-AE34-6B9515935E17}"/>
+    <hyperlink ref="D116" r:id="rId113" xr:uid="{6B069EB4-0B40-4800-AAEB-EC921DF2B2C2}"/>
+    <hyperlink ref="D117" r:id="rId114" xr:uid="{6BBC2A94-3887-4189-A054-AF93FAE358F3}"/>
+    <hyperlink ref="D118" r:id="rId115" xr:uid="{CA0157A6-230F-4CF2-9DBD-6FB9E8A17AD3}"/>
+    <hyperlink ref="D119" r:id="rId116" xr:uid="{2E0CC33A-809D-48FE-9970-2E4FF6702DD7}"/>
+    <hyperlink ref="D120" r:id="rId117" xr:uid="{899BAC2F-845F-4443-A5A1-136553396BD3}"/>
+    <hyperlink ref="D121" r:id="rId118" xr:uid="{A7EDDE35-3409-47F0-9A03-052D9FF9194F}"/>
+    <hyperlink ref="D122" r:id="rId119" xr:uid="{73D034EE-8596-4778-866F-9418AC0B7AE6}"/>
+    <hyperlink ref="D123" r:id="rId120" xr:uid="{763B3BFE-9B4F-42AE-9A51-74ED817C8C48}"/>
+    <hyperlink ref="D124" r:id="rId121" xr:uid="{77A091A2-948D-426C-B60D-50D4CE3CC202}"/>
+    <hyperlink ref="D125" r:id="rId122" xr:uid="{BE1267F0-64D3-453A-930A-0C0975DBFCC5}"/>
+    <hyperlink ref="D126" r:id="rId123" xr:uid="{D7CD5FF0-B181-416A-A66B-3A1AE39C0556}"/>
+    <hyperlink ref="D127" r:id="rId124" xr:uid="{3CD54160-9C62-4002-9792-433326DC5474}"/>
+    <hyperlink ref="D128" r:id="rId125" xr:uid="{8EEE9164-5519-4557-B731-6AFEB6CEF666}"/>
+    <hyperlink ref="D129" r:id="rId126" xr:uid="{7E7E38E9-2D27-4A97-B031-CA09BD0E7704}"/>
+    <hyperlink ref="D130" r:id="rId127" xr:uid="{CA75F700-1D1E-416E-96AA-46AEE1176489}"/>
+    <hyperlink ref="D131" r:id="rId128" xr:uid="{8A2463F0-86E1-4874-94A3-A30BDBC24631}"/>
+    <hyperlink ref="D132" r:id="rId129" xr:uid="{48D9D3C6-7DEF-452E-9CF4-152D851D116E}"/>
+    <hyperlink ref="D133" r:id="rId130" xr:uid="{A95A9D96-6991-44D7-9738-2D9FCDAF20F3}"/>
+    <hyperlink ref="D134" r:id="rId131" xr:uid="{839F7BCD-085B-4FD2-8CF7-FD2BFE01A2CB}"/>
+    <hyperlink ref="D135" r:id="rId132" xr:uid="{B9866069-61B8-4285-9B07-246D86A2DAD7}"/>
+    <hyperlink ref="D136" r:id="rId133" xr:uid="{619E3638-54DD-4A35-80F8-D02E84E74127}"/>
+    <hyperlink ref="D137" r:id="rId134" xr:uid="{C99994FF-D7BA-42C3-86DE-E29E742F79AB}"/>
+    <hyperlink ref="D138" r:id="rId135" xr:uid="{A6F23D52-4525-4331-A5EF-1E72A66C620B}"/>
+    <hyperlink ref="D139" r:id="rId136" xr:uid="{F3919DB0-3BCA-47F8-A881-D8FB680B71CB}"/>
+    <hyperlink ref="D140" r:id="rId137" xr:uid="{5E1576F6-BE25-491C-8057-C4C42E534064}"/>
+    <hyperlink ref="D141" r:id="rId138" xr:uid="{6B74A7E6-FD11-45DB-B0EC-D71EA4F628B2}"/>
+    <hyperlink ref="D142" r:id="rId139" xr:uid="{33F0CD18-C37D-447B-AE24-88194E2ADA18}"/>
+    <hyperlink ref="D143" r:id="rId140" xr:uid="{A3E35CBC-AECB-49F8-B475-ADF4596F912D}"/>
+    <hyperlink ref="D144" r:id="rId141" xr:uid="{35CEC1EA-28CB-4AE3-A89D-D60E426E0FD3}"/>
+    <hyperlink ref="D145" r:id="rId142" xr:uid="{A694FCE8-BF08-4C11-8131-71148D19BBD8}"/>
+    <hyperlink ref="D146" r:id="rId143" xr:uid="{7A4E0421-D1F8-445E-B0E2-14E7E534F375}"/>
+    <hyperlink ref="D147" r:id="rId144" xr:uid="{508B6B63-B44D-4A19-B103-39C7CE93F273}"/>
+    <hyperlink ref="D148" r:id="rId145" display="https://www.thestar.com/news/gta/2020/02/28/ttc-rider-struck-by-driver-after-exiting-streetcar-on-king-street.html" xr:uid="{18A06534-1B6B-40B9-936D-A9BF3E2EA2C4}"/>
+    <hyperlink ref="E11" r:id="rId146" xr:uid="{BCEFD877-981C-4547-8519-48D77C8A3370}"/>
+    <hyperlink ref="E10" r:id="rId147" xr:uid="{6AC07281-5C4E-4964-9D34-2DD09CF1413C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId148"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54B8A1C1-D417-4E22-AACD-315376640B13}">
+          <x14:formula1>
+            <xm:f>Portfolios!$B$2:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:L31"/>
@@ -7664,7 +10820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:M565"/>
@@ -18448,2873 +21604,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFEFABA-B6C7-48A0-98BB-F4A89C68BB38}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:M149"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="147.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>geturl(E3)</f>
-        <v>https://www.thestar.com/news/gta/2019/12/31/with-291-people-shot-2019-is-closing-as-torontos-bloodiest-year-on-record-for-overall-gun-violence.html</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F15" si="0">geturl(E4)</f>
-        <v>https://www.thestar.com/news/crime/2019/12/31/two-men-shot-overnight-in-north-york.html</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2019/12/31/six-arrested-after-downtown-home-invasion-on-boxing-day.html</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>43834</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/crime/2020/01/02/toronto-police-id-last-homicide-victim-of-2019-a-man-shot-on-new-years-eve-in-scarborough-parking-lot.html</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>43834</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>606</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2020/01/02/siu-clears-police-after-77-year-old-man-killed-in-scarborough-crash.html</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>43835</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>606</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2020/01/04/man-in-critical-condition-following-alleged-hit-and-run-at-jarvis-and-gerrard.html</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>43837</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>606</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2020/01/06/mornelle-court-residents-took-our-community-back-from-gun-violence-now-grades-are-up-crime-is-down-and-police-services-are-taking-note.html</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>43837</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>606</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2020/01/06/dog-rescued-after-she-was-abandoned-zipped-shut-in-suitcase-near-lambton-arena.html</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>43837</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>43837</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>606</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>43837</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>606</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2020/01/06/crime-stoppers-stops-giving-rewards-says-will-invest-in-communities-instead.html</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>43838</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>606</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/crime/2020/01/07/toronto-police-arrest-three-brampton-teens-after-a-spree-of-carjackings-across-gta.html</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>43838</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>606</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.thestar.com/news/gta/2020/01/07/weekend-hit-and-run-deaths-raise-a-question-why-dont-toronto-police-name-traffic-victims.html</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>43839</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>606</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" ref="F16:F30" si="1">geturl(E16)</f>
-        <v>https://www.thestar.com/news/gta/2020/01/08/toronto-police-release-video-in-investigation-into-pedestrian-death.html</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>43841</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>606</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/10/man-killed-outside-scarborough-building-was-heart-of-my-family-sister-says.html</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>43841</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>606</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/10/toronto-police-arrest-man-after-photo-shows-swastika-drawn-on-patients-head-at-care-facility.html</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>43842</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>606</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/11/man-has-life-threatening-injuries-after-overnight-shooting-in-scarborough.html</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>43842</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>606</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/12/man-arrested-after-committing-indecent-act-inside-york-childrens-store-toronto-police-say.html</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>43843</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>606</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/12/bloor-street-fire-closes-bridge-off-to-cars-pending-assessment.html</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>43843</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>606</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/13/despite-touting-new-investments-torontos-proposed-2020-budget-has-little-new-money-for-youth-gun-violence-programs.html</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>43843</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>606</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/opinion/editorials/2020/01/13/pedestrians-who-are-killed-are-not-statistics-we-should-know-their-names.html</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>43844</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/13/toronto-police-charge-three-men-with-murder-in-new-years-eve-killing-of-clinton-phil-williams-43.html</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>43844</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>606</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/crime/2020/01/13/man-arrested-after-four-firearms-found-in-vehicle-near-yonge-and-eglinton-last-month.html</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>43844</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>606</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/crime/2020/01/13/toronto-doctor-accused-of-sexually-assaulting-woman-during-physical-exam.html</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>43844</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>606</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/13/toronto-police-officer-charged-with-assault-accused-of-using-excessive-force-during-arrest.html</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>43844</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>606</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/13/pretrial-motions-begin-in-tess-richey-murder-case.html</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>43845</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>606</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/14/police-identify-woman-killed-in-scarborough-fire-as-maryna-kudzianiuk-49-saying-her-death-was-homicide.html</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>43845</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>606</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.thestar.com/news/gta/2020/01/14/sentencing-hearing-adjourned-after-chair-girl-denies-posting-video-on-snapchat.html</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>43846</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>606</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="2" t="str">
-        <f t="shared" ref="F31:F51" si="2">geturl(E31)</f>
-        <v>https://www.thestar.com/news/crime/2020/01/15/man-charged-with-first-degree-murder-in-december-homicide-outside-scarborough-building.html</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>43846</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>606</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/canada/2020/01/15/barry-and-honey-sherman-were-murdered-within-hours-of-arriving-home-toronto-police-say.html</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>43847</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>606</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/16/prosecutor-hopes-to-confirm-trial-start-date-for-alek-minassian-driver-in-yonge-street-van-attack.html</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>43847</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>606</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/canada/2020/01/16/food-delivery-people-targeted-in-string-of-robberies-in-east-toronto-police-says.html</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>43847</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>606</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/crime/2020/01/16/brampton-homicide-victim-identified-as-woman-who-went-missing-in-toronto.html</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>43847</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>606</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/16/teen-charged-after-hackers-target-toronto-cybersecurity-experts-in-50-million-scam.html</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>43848</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>606</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/canada/2020/01/17/barry-and-honey-sherman-murder-investigation-has-interviewed-few-witnesses-in-almost-2-years-cops-are-focused-on-reviewing-video-and-data-to-catch-the-killer.html</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>43848</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>606</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/17/toronto-firefighter-charged-after-girl-struck-at-pedestrian-crossover.html</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>43848</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>606</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/17/pedestrian-suffers-critical-injuries-after-shes-struck-by-driver-in-north-york-parking-lot.html</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>43849</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/18/the-proof-was-on-his-phone-the-whole-time-the-story-of-one-toronto-mans-wrongful-conv</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>43849</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>606</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/18/police-report-250-collisions-as-snowstorm-hits-toronto.html</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>43851</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>606</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/20/man-dead-after-shooting-near-markham-and-ellesmere.html</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>43851</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>606</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/crime/2020/01/20/scarborough-homicide-victim-like-a-second-mother-says-family-friend.html</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>43851</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>606</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/20/ex-husband-wanted-in-murder-of-28-year-old-heeral-patel-is-found-dead-in-toronto.html</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>43851</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>606</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/opinion/star-columnists/2020/01/20/university-of-toronto-needs-to-do-more-when-it-comes-to-controversial-practice-of-handcuffing-of-students-seeking-help.html</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>606</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/21/15-year-old-victim-killed-near-woburn-high-school-was-completely-innocent.html</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/21/seven-toronto-teens-who-were-murdered-in-2019.html</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>606</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/politics/provincial/2020/01/21/ontarios-human-rights-watchdog-made-a-shortlist-for-new-commissioners-doug-ford-picked-two-of-his-own-instead.html</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>606</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/21/new-member-of-toronto-police-services-board-is-a-big-proponent-of-community-policing.html</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>606</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/21/ex-toronto-cop-james-forcillo-granted-full-parole-four-years-after-attempted-murder-conviction-in-death-of-sammy-yatim.html</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>606</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.thestar.com/news/gta/2020/01/21/pedestrian-struck-and-killed-by-truck-driver-in-a-hit-and-run-in-north-york.html</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>606</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="2" t="str">
-        <f t="shared" ref="F52:F69" si="3">geturl(E52)</f>
-        <v>https://www.thestar.com/news/gta/2020/01/21/police-arrest-man-after-investigation-of-taxi-scam-involving-debit-cards.html</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>43853</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>606</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/politics/provincial/2020/01/22/toronto-cop-named-to-human-rights-watchdog-by-premier-doug-ford-defends-controversial-appointment.html</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <v>43853</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>606</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/22/woman-in-life-threatening-condition-after-stabbing-near-york-university.html</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <v>43853</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>606</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/22/he-didnt-deserve-to-die-family-community-mourn-15-year-old-gunned-down-near-scarborough-school.html</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
-        <v>43853</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>606</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/opinion/contributors/2020/01/22/outrageous-to-grant-early-parole-to-police-officer-who-killed-sammy-yatim.html</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <v>43853</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>606</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/21/olivia-nuamah-no-longer-head-of-pride-toronto.html</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
-        <v>43854</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>606</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F58" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/23/the-whole-street-is-left-in-sadness-54-year-old-woman-found-dead-in-oakwood-vaughan-home-was-victim-of-homicide-police-say.html</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <v>43854</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>606</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/politics/provincial/2020/01/23/black-legal-clinic-fears-the-integrity-of-the-human-rights-commission-has-been-compromised-by-the-ford-government.html</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <v>43855</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>606</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/crime/2020/01/24/police-charge-man-with-first-degree-murder-five-days-after-scarborough-apartment-fire.html</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <v>43855</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>606</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/24/toronto-behavioural-therapist-charged-with-assault-of-eight-year-old-boy.html</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <v>43855</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>606</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F62" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/24/accused-in-tess-richey-case-pleads-not-guilty-to-first-degree-murder.html</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <v>43855</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>606</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F63" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/politics/provincial/2020/01/24/ford-defends-phenomenal-appointment-of-toronto-police-officer-to-human-rights-commission.html</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <v>43855</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>606</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/24/ryerson-has-lost-confidence-in-student-union-drops-rsu-as-official-student-government.html</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <v>43857</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>606</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/26/a-28-year-old-man-shot-in-scarborough-saturday-night-is-the-sixth-homicide-of-the-year.html</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <v>43858</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>606</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F66" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/27/new-shift-schedule-gives-officers-more-time-for-crime-prevention-traffic-enforcement-toronto-police-say.html</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <v>43858</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>606</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F67" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/opinion/contributors/thebigdebate/2020/01/28/is-the-assault-weapon-buyback-a-misguided-idea.html</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>43858</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>606</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F68" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/27/police-seek-suspect-after-unknown-substance-placed-in-bottles-of-coke-ketchup-at-runnymede-and-annette-convenience-store.html</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>43859</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>606</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F69" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.thestar.com/news/gta/2020/01/28/gta-mayors-and-police-chiefs-call-for-smarter-investment-on-unacceptable-youth-gun-violence.html</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <v>43859</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
-        <v>606</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F70" s="2" t="str">
-        <f t="shared" ref="F70:F84" si="4">geturl(E70)</f>
-        <v>https://www.thestar.com/news/gta/2020/01/28/76-year-old-pedestrian-killed-in-west-end-collision.html</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <v>43859</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>606</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F71" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/politics/federal/2020/01/28/facial-recognition-technology-poses-enormous-potential-for-abuse-ndp-says.html</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>606</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F72" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/crime/2020/01/29/toronto-police-charge-hamilton-man-in-alleged-phone-fraud-scam.html</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>606</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F73" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/01/29/closing-arguments-begin-today-in-trial-of-michael-and-christian-theriault-accused-of-beating-dafonte-miller.html</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <v>43860</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>606</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F74" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/01/29/ford-government-has-floated-giving-itself-more-control-over-judicial-appointments-documents-reveal.html</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>43861</v>
-      </c>
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>606</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F75" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/01/30/trial-to-begin-today-for-man-accused-of-killing-tess-richey.html</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="1">
-        <v>43861</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>606</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F76" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/01/30/tess-richeys-death-roiled-toronto-heres-what-you-need-to-know-as-the-trial-starts-for-man-accused-of-killing-her.html</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
-        <v>43865</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>606</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F77" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/02/03/toronto-rap-artist-among-three-killed-in-downtown-airbnb-friday-he-collaborated-with-a-local-rapper-killed-recently-in-bc.html</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="1">
-        <v>43865</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>606</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/02/03/days-after-airbnb-killings-mayor-tory-pledges-6-million-in-new-money-for-youth-violence-prevention.html</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="1">
-        <v>43865</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>606</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F79" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/02/03/man-shot-by-toronto-police-last-month-has-died-siu-says.html</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="1">
-        <v>43865</v>
-      </c>
-      <c r="C80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" t="s">
-        <v>606</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F80" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/02/03/whats-happened-so-far-at-the-trial-of-the-man-accused-of-tess-richeys-downtown-toronto-murder.html</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="1">
-        <v>43864</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>606</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F81" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/02/01/city-calls-on-short-rental-operators-to-delist-ghost-hotels-after-triple-homicide-at-downtown-airbnb.html</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="1">
-        <v>43863</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>606</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F82" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/world/us/2020/02/01/digital-footprints-lead-cops-to-arizona-fugitive-in-canada.html</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="1">
-        <v>43862</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>606</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F83" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/01/31/four-injured-possibly-two-in-life-threatening-condition-after-shooting-downtown.html</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="1">
-        <v>43862</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>606</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F84" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.thestar.com/news/gta/2020/01/31/toronto-van-attack-driver-alek-minassians-trial-will-begin-april-6.html</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="1">
-        <v>43862</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>606</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" ref="F85:F101" si="5">geturl(E85)</f>
-        <v>https://www.thestar.com/news/gta/2020/01/31/sister-describes-familys-discovery-of-tess-richeys-body-at-murder-trial.html</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="1">
-        <v>43866</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>606</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/04/initial-evidence-suggests-airbnb-shooting-was-a-murder-suicide-police-say.html</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
-        <v>43866</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>606</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F87" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/opinion/editorials/2020/02/04/toronto-council-should-back-plan-to-fight-youth-violence.html</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="1">
-        <v>43866</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>606</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/04/tess-richeys-friend-describes-night-out-together-in-torontos-gay-village.html</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="1">
-        <v>43867</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>606</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/05/scarboroughs-cedarbrae-collegiate-institute-in-lockdown-after-shooting.html</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="1">
-        <v>43867</v>
-      </c>
-      <c r="C90" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" t="s">
-        <v>606</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F90" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Toronto Star: Undercover cops discussed Magic: The Gathering to convince accused killer to describe Tess Richey’s last hours, trial hears</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="1">
-        <v>43868</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>606</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F91" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/06/man-sustains-life-altering-injuries-after-he-is-stabbed-with-scissors-on-ttc-bus.html</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="1">
-        <v>43868</v>
-      </c>
-      <c r="C92" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>606</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F92" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/06/man-accused-of-abducting-toddler-and-fleeing-to-the-us-in-1987-returns-to-toronto-to-face-charge.html</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="1">
-        <v>43868</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>606</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F93" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/06/toronto-police-had-no-right-to-seize-hidden-bedside-camera-from-airbnb-condo-judge-rules.html</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="1">
-        <v>43868</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
-        <v>606</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F94" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/06/car-crash-in-scarborough-leaves-girl-15-with-life-threatening-injuries.html</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" t="s">
-        <v>606</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F95" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/07/toronto-police-grieves-loss-of-veteran-police-officer.html</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
-        <v>606</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/07/toronto-police-seeking-suv-driver-after-death-of-93-year-old-woman-in-leslieville.html</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>606</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/07/one-man-in-life-threatening-condition-after-shooting-in-etobicoke.html</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>606</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/07/york-university-instructor-charged-with-sexual-assault-on-ttc-after-viral-social-media-post.html</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
-        <v>606</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F99" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/07/social-media-can-empower-women-to-speak-out-about-sexual-violence-viral-social-post-shows.html</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="1">
-        <v>43869</v>
-      </c>
-      <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" t="s">
-        <v>606</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F100" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/07/undercover-cop-has-flawed-memory-defence-argues-at-tess-richey-murder-trial.html</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="1">
-        <v>43870</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>606</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F101" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.thestar.com/news/gta/2020/02/08/toronto-police-identify-29-year-old-man-as-victim-of-etobicoke-shooting.html</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="1">
-        <v>43872</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" t="s">
-        <v>606</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F102" s="2" t="str">
-        <f t="shared" ref="F102:F115" si="6">geturl(E102)</f>
-        <v>https://www.thestar.com/news/gta/2020/02/10/man-facing-24-charges-after-road-rage-incident-involving-pedestrian.html</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="1">
-        <v>43872</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>606</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F103" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/world/us/2020/02/10/state-to-review-la-police-use-of-california-gang-database.html</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="1">
-        <v>43873</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>606</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F104" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/crime/2020/02/11/toronto-police-charge-two-people-with-murder-in-death-of-deandre-campbell-kelly.html</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="1">
-        <v>43873</v>
-      </c>
-      <c r="C105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>606</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F105" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/11/man-who-escaped-toronto-psychiatric-hospital-found-say-police.html</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
-        <v>43875</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>606</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F106" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/13/toronto-police-used-clearview-ai-an-incredibly-controversial-facial-recognition-tool.html</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="1">
-        <v>43875</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>606</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F107" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/politics/provincial/2020/02/13/ontario-human-rights-commission-will-remain-independent-attorney-general-says.html</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="1">
-        <v>43875</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>606</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F108" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/crime/2020/02/13/toronto-police-seeking-man-who-harassed-assaulted-woman-for-wearing-mask.html</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="1">
-        <v>43875</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>606</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/life/opinion/2020/02/14/its-been-two-years-since-bruce-mcarthurs-arrest-has-anything-changed-in-torontos-gay-community.html</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="1">
-        <v>43876</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>606</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F110" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/14/peel-and-halton-police-reveal-they-too-used-controversial-facial-recognition-tool.html</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="1">
-        <v>43876</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>606</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F111" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/14/man-in-serious-condition-after-he-was-shot-downtown.html</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="1">
-        <v>43876</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>606</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F112" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/14/police-seek-suspect-in-firearm-investigation.html</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="1">
-        <v>43878</v>
-      </c>
-      <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" t="s">
-        <v>606</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F113" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/opinion/editorials/2020/02/16/toronto-police-need-to-spend-more-time-enforcing-traffic-laws.html</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="1">
-        <v>43879</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s">
-        <v>606</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F114" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/18/toronto-police-board-to-mull-donation-to-purchase-new-armoured-vehicle.html</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="1">
-        <v>43880</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
-        <v>606</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F115" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>https://www.thestar.com/news/gta/2020/02/18/police-called-to-premiers-home-to-investigate-suspicious-package.html</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="1">
-        <v>43880</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s">
-        <v>606</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F116" s="2" t="str">
-        <f t="shared" ref="F116:F136" si="7">geturl(E116)</f>
-        <v>https://www.thestar.com/news/gta/2020/02/18/contractors-association-behind-offer-to-donate-armoured-vehicle-to-toronto-police.html</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="1">
-        <v>43880</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s">
-        <v>606</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/17/wetsuweten-solidarity-protest-weaves-through-toronto.html</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="1">
-        <v>43881</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>606</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/crime/2020/02/19/man-charged-after-woman-wearing-mask-on-ttc-bus-was-assaulted.html</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="1">
-        <v>43881</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>606</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/city_hall/2020/02/19/toronto-must-do-more-to-respond-to-mmiwg-inquirys-calls-for-justice-city-report-says.html</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="1">
-        <v>43881</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>606</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/19/contractors-association-withdraws-offer-to-fund-new-armoured-car-for-toronto-police-emergency-task-force.html</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="1">
-        <v>43881</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s">
-        <v>606</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/20/did-police-break-the-law-by-using-controversial-face-recognition-app.html</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="1">
-        <v>43882</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>606</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/20/video-shows-schlatter-richey-walking-together-on-night-she-went-missing.html</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="1">
-        <v>43883</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>606</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/21/one-dies-in-scarborough-shooting.html</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="1">
-        <v>43883</v>
-      </c>
-      <c r="C124" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" t="s">
-        <v>606</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/21/judge-tosses-heroin-case-after-finding-toronto-cop-repeatedly-misled-court-ignored-a-subpoena-retired-and-left-for-italy.html</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="1">
-        <v>43883</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>606</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/21/schattlers-lawyers-draw-attention-to-other-man-seen-on-night-tess-richey-disappeared.html</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="1">
-        <v>43883</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s">
-        <v>606</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/20/privacy-commissioners-launch-investigation-into-facial-recognition-technology-tested-by-toronto-police-other-gta-forces.html</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>606</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/22/man-charged-with-first-degree-murder-after-fatal-hammer-attack-in-scarborough.html</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>606</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/22/no-one-injured-after-shooting-in-the-bridle-path-toronto-police-say.html</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C129" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" t="s">
-        <v>606</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/opinion/letters_to_the_editors/2020/02/22/would-enforcing-traffic-laws-make-our-streets-safer.html</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>606</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/22/police-chiefs-say-facial-recognition-needs-more-review-but-cops-should-be-able-to-use-ai.html</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="1">
-        <v>43885</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>606</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/23/woman-in-her-40s-in-serious-condition-following-shooting-in-toronto-police-say.html</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="1">
-        <v>43885</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>606</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/23/man-in-40s-suffers-serious-injuries-after-shooting-in-scarborough.html</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="1">
-        <v>43885</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s">
-        <v>606</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/opinion/editorials/2020/02/24/we-need-a-stop-to-facial-fingerprinting-by-police.html</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="1">
-        <v>43886</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
-        <v>606</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/crime/2020/02/24/one-dead-two-injured-in-downsview-stabbing-toronto-police-say.html</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="1">
-        <v>43886</v>
-      </c>
-      <c r="C135" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" t="s">
-        <v>606</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/gta/2020/02/24/toronto-police-seeking-witnesses-after-fatal-collision-sunday.html</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>606</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://www.thestar.com/news/crime/2020/02/25/17-year-old-boy-charged-with-murder-in-downsview-triple-stabbing.html</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>606</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" ref="F137:F149" si="8">geturl(E137)</f>
-        <v>https://www.thestar.com/news/gta/2020/02/25/toronto-man-faces-terrorism-charge-after-deadly-hammer-attack.html</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s">
-        <v>606</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F138" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/26/go-transit-tracks-open-in-toronto-as-police-remove-and-arrest-demonstrators-overnight.html</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>606</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F139" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/25/toronto-feels-the-pain-of-wetsuweten-solidarity-blockades-as-protesters-target-rail-lines.html</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>606</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/25/sometimes-career-suicides-better-than-the-other-one.html</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="1">
-        <v>43888</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
-        <v>606</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/26/man-pleads-guilty-in-toronto-polices-largest-gun-seizure-he-was-caught-with-60-handguns-smuggled-from-florida.html</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="1">
-        <v>43888</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" t="s">
-        <v>606</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/26/north-york-woman-killed-in-stabbing-at-spa-was-a-loving-mother-who-had-contagious-smile.html</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="1">
-        <v>43888</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>606</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/26/whats-happened-so-far-at-the-trial-of-the-man-accused-of-tess-richeys-downtown-toronto-murder.html</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C144" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" t="s">
-        <v>606</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/city_hall/2020/02/27/toronto-police-warn-of-potentially-deadly-drug-mixture-after-spike-in-overdoses.html</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" t="s">
-        <v>606</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/27/in-a-few-seconds-of-grainy-video-a-toronto-jury-sees-tess-richeys-last-public-moments-with-an-accused-killer.html</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" t="s">
-        <v>606</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/27/pilot-of-ornge-emergency-helicopter-injured-by-green-laser.html</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C147" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" t="s">
-        <v>606</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/27/wilson-subway-station-evacuated-due-to-suspicious-package.html</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" t="s">
-        <v>606</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/canada/2020/02/27/facial-recognition-app-clearview-ai-has-been-used-far-more-widely-in-canada-than-previously-known.html</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="1">
-        <v>43890</v>
-      </c>
-      <c r="C149" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" t="s">
-        <v>606</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.thestar.com/news/gta/2020/02/28/ttc-rider-struck-by-driver-after-exiting-streetcar-on-king-street.html</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:E149" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="E3:E149">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=":">
-      <formula>NOT(ISERROR(SEARCH(":",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://www.thestar.com/news/gta/2019/12/31/with-291-people-shot-2019-is-closing-as-torontos-bloodiest-year-on-record-for-overall-gun-violence.html" xr:uid="{1AF61C7B-01E3-4ABA-BF21-719EDCD3ACB8}"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://www.thestar.com/news/crime/2019/12/31/two-men-shot-overnight-in-north-york.html" xr:uid="{8610E8B4-A152-4F65-9069-C3350708F1C4}"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://www.thestar.com/news/gta/2019/12/31/six-arrested-after-downtown-home-invasion-on-boxing-day.html" xr:uid="{B1179910-B363-44CB-A022-9F79EA386966}"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://www.thestar.com/news/crime/2020/01/02/toronto-police-id-last-homicide-victim-of-2019-a-man-shot-on-new-years-eve-in-scarborough-parking-lot.html" xr:uid="{19E95C1F-CDA8-469F-892D-CEE489E226C8}"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://www.thestar.com/news/gta/2020/01/02/siu-clears-police-after-77-year-old-man-killed-in-scarborough-crash.html" xr:uid="{BF63271B-097E-46B4-8878-93DDB42DE0FF}"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://www.thestar.com/news/gta/2020/01/04/man-in-critical-condition-following-alleged-hit-and-run-at-jarvis-and-gerrard.html" xr:uid="{8CAF9C84-7896-408D-8514-2D151E5E0451}"/>
-    <hyperlink ref="E9" r:id="rId7" display="https://www.thestar.com/news/gta/2020/01/06/mornelle-court-residents-took-our-community-back-from-gun-violence-now-grades-are-up-crime-is-down-and-police-services-are-taking-note.html" xr:uid="{AE835C6E-DD2E-4890-A822-60DA76E1465E}"/>
-    <hyperlink ref="E10" r:id="rId8" display="https://www.thestar.com/news/gta/2020/01/06/dog-rescued-after-she-was-abandoned-zipped-shut-in-suitcase-near-lambton-arena.html" xr:uid="{B3707E6C-0CDB-4DE9-97F0-C6DA581A7838}"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://www.thestar.com/news/gta/2020/01/06/crime-stoppers-stops-giving-rewards-says-will-invest-in-communities-instead.html" xr:uid="{975E52E4-3235-4608-88DE-D316002FB3FE}"/>
-    <hyperlink ref="E14" r:id="rId10" display="https://www.thestar.com/news/crime/2020/01/07/toronto-police-arrest-three-brampton-teens-after-a-spree-of-carjackings-across-gta.html" xr:uid="{F0E9EF36-88D6-4B56-AF4F-835554709132}"/>
-    <hyperlink ref="E15" r:id="rId11" display="https://www.thestar.com/news/gta/2020/01/07/weekend-hit-and-run-deaths-raise-a-question-why-dont-toronto-police-name-traffic-victims.html" xr:uid="{1CE5D9F9-E1C3-4D54-A776-DADFAB8532CC}"/>
-    <hyperlink ref="E16" r:id="rId12" display="https://www.thestar.com/news/gta/2020/01/08/toronto-police-release-video-in-investigation-into-pedestrian-death.html" xr:uid="{1CB0C20B-7805-404F-8641-7A789111C03D}"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://www.thestar.com/news/gta/2020/01/10/man-killed-outside-scarborough-building-was-heart-of-my-family-sister-says.html" xr:uid="{E77A1F1B-EF11-42B6-BA91-CEB69514B3EF}"/>
-    <hyperlink ref="E18" r:id="rId14" display="https://www.thestar.com/news/gta/2020/01/10/toronto-police-arrest-man-after-photo-shows-swastika-drawn-on-patients-head-at-care-facility.html" xr:uid="{82001925-2562-4B26-B97F-2362B49C59B9}"/>
-    <hyperlink ref="E19" r:id="rId15" display="https://www.thestar.com/news/gta/2020/01/11/man-has-life-threatening-injuries-after-overnight-shooting-in-scarborough.html" xr:uid="{70D941A9-AE51-4761-B2E2-9F0596231CDE}"/>
-    <hyperlink ref="E20" r:id="rId16" display="https://www.thestar.com/news/gta/2020/01/12/man-arrested-after-committing-indecent-act-inside-york-childrens-store-toronto-police-say.html" xr:uid="{30C97EDE-274A-4731-AFFB-C6437DC6FAE2}"/>
-    <hyperlink ref="E21" r:id="rId17" display="https://www.thestar.com/news/gta/2020/01/12/bloor-street-fire-closes-bridge-off-to-cars-pending-assessment.html" xr:uid="{A87F7B10-9758-482F-920E-965B019C46C6}"/>
-    <hyperlink ref="E22" r:id="rId18" display="https://www.thestar.com/news/gta/2020/01/13/despite-touting-new-investments-torontos-proposed-2020-budget-has-little-new-money-for-youth-gun-violence-programs.html" xr:uid="{D4C76EA5-B226-4381-A0CF-D34F9B8EF49F}"/>
-    <hyperlink ref="E23" r:id="rId19" display="https://www.thestar.com/opinion/editorials/2020/01/13/pedestrians-who-are-killed-are-not-statistics-we-should-know-their-names.html" xr:uid="{E4C0DD50-6293-4D07-88A7-55ADF23B3F0A}"/>
-    <hyperlink ref="E24" r:id="rId20" display="https://www.thestar.com/news/gta/2020/01/13/toronto-police-charge-three-men-with-murder-in-new-years-eve-killing-of-clinton-phil-williams-43.html" xr:uid="{8CE0FC58-83DE-4814-87BD-64E1A5811A2A}"/>
-    <hyperlink ref="E25" r:id="rId21" display="https://www.thestar.com/news/crime/2020/01/13/man-arrested-after-four-firearms-found-in-vehicle-near-yonge-and-eglinton-last-month.html" xr:uid="{04104381-F73F-4E19-9EA0-406E9EB7C970}"/>
-    <hyperlink ref="E26" r:id="rId22" display="https://www.thestar.com/news/crime/2020/01/13/toronto-doctor-accused-of-sexually-assaulting-woman-during-physical-exam.html" xr:uid="{1020DE59-30C2-48D1-8E49-371AAD3A3C1E}"/>
-    <hyperlink ref="E27" r:id="rId23" display="https://www.thestar.com/news/gta/2020/01/13/toronto-police-officer-charged-with-assault-accused-of-using-excessive-force-during-arrest.html" xr:uid="{F0BC0037-B549-47F5-A958-44C9C11DAE7B}"/>
-    <hyperlink ref="E28" r:id="rId24" display="https://www.thestar.com/news/gta/2020/01/13/pretrial-motions-begin-in-tess-richey-murder-case.html" xr:uid="{510AFC7D-AF39-4453-9A76-F73F598787E1}"/>
-    <hyperlink ref="E29" r:id="rId25" display="https://www.thestar.com/news/gta/2020/01/14/police-identify-woman-killed-in-scarborough-fire-as-maryna-kudzianiuk-49-saying-her-death-was-homicide.html" xr:uid="{DF1CA9A4-DE9F-491B-B5A5-ADD8005D0C26}"/>
-    <hyperlink ref="E30" r:id="rId26" display="https://www.thestar.com/news/gta/2020/01/14/sentencing-hearing-adjourned-after-chair-girl-denies-posting-video-on-snapchat.html" xr:uid="{90B52535-FD26-49EA-8BB7-F45DE0DFF5EC}"/>
-    <hyperlink ref="E31" r:id="rId27" display="https://www.thestar.com/news/crime/2020/01/15/man-charged-with-first-degree-murder-in-december-homicide-outside-scarborough-building.html" xr:uid="{E337BF1E-DF3C-454C-95A5-25AB492BAC46}"/>
-    <hyperlink ref="E32" r:id="rId28" display="https://www.thestar.com/news/canada/2020/01/15/barry-and-honey-sherman-were-murdered-within-hours-of-arriving-home-toronto-police-say.html" xr:uid="{E934B801-6CBA-4545-9339-0C4B005D1B6F}"/>
-    <hyperlink ref="E33" r:id="rId29" display="https://www.thestar.com/news/gta/2020/01/16/prosecutor-hopes-to-confirm-trial-start-date-for-alek-minassian-driver-in-yonge-street-van-attack.html" xr:uid="{FCF8E198-8E74-464E-865D-7BF2BEE0E090}"/>
-    <hyperlink ref="E34" r:id="rId30" display="https://www.thestar.com/news/canada/2020/01/16/food-delivery-people-targeted-in-string-of-robberies-in-east-toronto-police-says.html" xr:uid="{48372D87-6361-4087-B7EC-7FABCE49F799}"/>
-    <hyperlink ref="E35" r:id="rId31" display="https://www.thestar.com/news/crime/2020/01/16/brampton-homicide-victim-identified-as-woman-who-went-missing-in-toronto.html" xr:uid="{7BBB6297-5136-4B78-85B9-5CEDF389BBFD}"/>
-    <hyperlink ref="E36" r:id="rId32" display="https://www.thestar.com/news/gta/2020/01/16/teen-charged-after-hackers-target-toronto-cybersecurity-experts-in-50-million-scam.html" xr:uid="{D2BBC8A3-FCD8-45FD-8A69-ED928597AF3C}"/>
-    <hyperlink ref="E37" r:id="rId33" display="https://www.thestar.com/news/canada/2020/01/17/barry-and-honey-sherman-murder-investigation-has-interviewed-few-witnesses-in-almost-2-years-cops-are-focused-on-reviewing-video-and-data-to-catch-the-killer.html" xr:uid="{F4D7FD48-1243-43F8-BF4C-C787ABB4E1EB}"/>
-    <hyperlink ref="E38" r:id="rId34" display="https://www.thestar.com/news/gta/2020/01/17/toronto-firefighter-charged-after-girl-struck-at-pedestrian-crossover.html" xr:uid="{3A80B26F-D211-43D2-A30D-7628416C47BF}"/>
-    <hyperlink ref="E39" r:id="rId35" display="https://www.thestar.com/news/gta/2020/01/17/pedestrian-suffers-critical-injuries-after-shes-struck-by-driver-in-north-york-parking-lot.html" xr:uid="{0EB1DEED-5CEB-47E4-A9C3-269391AD400D}"/>
-    <hyperlink ref="E40" r:id="rId36" display="https://www.thestar.com/news/gta/2020/01/18/the-proof-was-on-his-phone-the-whole-time-the-story-of-one-toronto-mans-wrongful-conv" xr:uid="{A4E7179A-1C77-42B0-8421-336B4B42264C}"/>
-    <hyperlink ref="E41" r:id="rId37" display="https://www.thestar.com/news/gta/2020/01/18/police-report-250-collisions-as-snowstorm-hits-toronto.html" xr:uid="{D5A0B4B1-1DF0-4757-AB77-E810267539AB}"/>
-    <hyperlink ref="E42" r:id="rId38" display="https://www.thestar.com/news/gta/2020/01/20/man-dead-after-shooting-near-markham-and-ellesmere.html" xr:uid="{66E09753-3CC6-4214-84D9-D0E9F7ACCD41}"/>
-    <hyperlink ref="E43" r:id="rId39" display="https://www.thestar.com/news/crime/2020/01/20/scarborough-homicide-victim-like-a-second-mother-says-family-friend.html" xr:uid="{82BB6FD8-3393-4997-98C4-765C4C265DE1}"/>
-    <hyperlink ref="E44" r:id="rId40" display="https://www.thestar.com/news/gta/2020/01/20/ex-husband-wanted-in-murder-of-28-year-old-heeral-patel-is-found-dead-in-toronto.html" xr:uid="{2F926EB4-DAB3-4656-B116-1D6A2993EF29}"/>
-    <hyperlink ref="E45" r:id="rId41" display="https://www.thestar.com/opinion/star-columnists/2020/01/20/university-of-toronto-needs-to-do-more-when-it-comes-to-controversial-practice-of-handcuffing-of-students-seeking-help.html" xr:uid="{F741F708-1334-46D7-98AE-8B99E319E7D2}"/>
-    <hyperlink ref="E46" r:id="rId42" display="https://www.thestar.com/news/gta/2020/01/21/15-year-old-victim-killed-near-woburn-high-school-was-completely-innocent.html" xr:uid="{922A9F64-8D28-4EBC-97E2-7131445A6314}"/>
-    <hyperlink ref="E47" r:id="rId43" display="https://www.thestar.com/news/gta/2020/01/21/seven-toronto-teens-who-were-murdered-in-2019.html" xr:uid="{7584D330-00FA-4A4C-B443-A782D6549426}"/>
-    <hyperlink ref="E48" r:id="rId44" display="https://www.thestar.com/politics/provincial/2020/01/21/ontarios-human-rights-watchdog-made-a-shortlist-for-new-commissioners-doug-ford-picked-two-of-his-own-instead.html" xr:uid="{5948D170-94AD-4F69-ABED-91373E7B5E3C}"/>
-    <hyperlink ref="E49" r:id="rId45" display="https://www.thestar.com/news/gta/2020/01/21/new-member-of-toronto-police-services-board-is-a-big-proponent-of-community-policing.html" xr:uid="{D5D680F2-1E1D-49F0-8F44-1EA1AAA6340A}"/>
-    <hyperlink ref="E50" r:id="rId46" display="https://www.thestar.com/news/gta/2020/01/21/ex-toronto-cop-james-forcillo-granted-full-parole-four-years-after-attempted-murder-conviction-in-death-of-sammy-yatim.html" xr:uid="{4729CAF0-F8D1-4B24-8BFF-EA12AB79E24C}"/>
-    <hyperlink ref="E51" r:id="rId47" display="https://www.thestar.com/news/gta/2020/01/21/pedestrian-struck-and-killed-by-truck-driver-in-a-hit-and-run-in-north-york.html" xr:uid="{0C68AE35-555B-40BC-BD90-55B8D738D5EF}"/>
-    <hyperlink ref="E52" r:id="rId48" display="https://www.thestar.com/news/gta/2020/01/21/police-arrest-man-after-investigation-of-taxi-scam-involving-debit-cards.html" xr:uid="{5608AC95-3AE2-4CEE-A30B-A8DEB1B1353A}"/>
-    <hyperlink ref="E53" r:id="rId49" display="https://www.thestar.com/politics/provincial/2020/01/22/toronto-cop-named-to-human-rights-watchdog-by-premier-doug-ford-defends-controversial-appointment.html" xr:uid="{C4FC4811-2E69-4F61-9D93-F2BC2010748A}"/>
-    <hyperlink ref="E54" r:id="rId50" display="https://www.thestar.com/news/gta/2020/01/22/woman-in-life-threatening-condition-after-stabbing-near-york-university.html" xr:uid="{8DEB72EA-6CD0-4991-9B79-44AAB8B2B27B}"/>
-    <hyperlink ref="E55" r:id="rId51" display="https://www.thestar.com/news/gta/2020/01/22/he-didnt-deserve-to-die-family-community-mourn-15-year-old-gunned-down-near-scarborough-school.html" xr:uid="{1916CEE0-DFFC-4CD6-99D7-19F68040C879}"/>
-    <hyperlink ref="E56" r:id="rId52" display="https://www.thestar.com/opinion/contributors/2020/01/22/outrageous-to-grant-early-parole-to-police-officer-who-killed-sammy-yatim.html" xr:uid="{DC5C88BF-ED93-4D3E-88D5-8BD5CEFD0172}"/>
-    <hyperlink ref="E57" r:id="rId53" display="https://www.thestar.com/news/gta/2020/01/21/olivia-nuamah-no-longer-head-of-pride-toronto.html" xr:uid="{9496C670-4615-4F0F-A922-EEC9D0213FDB}"/>
-    <hyperlink ref="E58" r:id="rId54" display="https://www.thestar.com/news/gta/2020/01/23/the-whole-street-is-left-in-sadness-54-year-old-woman-found-dead-in-oakwood-vaughan-home-was-victim-of-homicide-police-say.html" xr:uid="{CE5A6448-1B5B-4ED3-9658-186791420256}"/>
-    <hyperlink ref="E59" r:id="rId55" display="https://www.thestar.com/politics/provincial/2020/01/23/black-legal-clinic-fears-the-integrity-of-the-human-rights-commission-has-been-compromised-by-the-ford-government.html" xr:uid="{E2542081-DA56-43FE-94B0-D326CA7390D0}"/>
-    <hyperlink ref="E60" r:id="rId56" display="https://www.thestar.com/news/crime/2020/01/24/police-charge-man-with-first-degree-murder-five-days-after-scarborough-apartment-fire.html" xr:uid="{62194D86-27F7-466C-B837-A91400FE03C3}"/>
-    <hyperlink ref="E61" r:id="rId57" display="https://www.thestar.com/news/gta/2020/01/24/toronto-behavioural-therapist-charged-with-assault-of-eight-year-old-boy.html" xr:uid="{4F9CFAD3-A47F-459D-A09C-2C469B827849}"/>
-    <hyperlink ref="E62" r:id="rId58" display="https://www.thestar.com/news/gta/2020/01/24/accused-in-tess-richey-case-pleads-not-guilty-to-first-degree-murder.html" xr:uid="{28F28774-10A6-4549-A8AB-6E564C03B9E8}"/>
-    <hyperlink ref="E63" r:id="rId59" display="https://www.thestar.com/politics/provincial/2020/01/24/ford-defends-phenomenal-appointment-of-toronto-police-officer-to-human-rights-commission.html" xr:uid="{FCF7E2AC-2EC8-4D51-9E57-7278DFB4B924}"/>
-    <hyperlink ref="E64" r:id="rId60" display="https://www.thestar.com/news/gta/2020/01/24/ryerson-has-lost-confidence-in-student-union-drops-rsu-as-official-student-government.html" xr:uid="{6EDFF559-0BB0-408A-B313-ACFCC921FFE8}"/>
-    <hyperlink ref="E65" r:id="rId61" display="https://www.thestar.com/news/gta/2020/01/26/a-28-year-old-man-shot-in-scarborough-saturday-night-is-the-sixth-homicide-of-the-year.html" xr:uid="{1B667004-C1D7-432B-84CC-98977FA3DE2D}"/>
-    <hyperlink ref="E66" r:id="rId62" display="https://www.thestar.com/news/gta/2020/01/27/new-shift-schedule-gives-officers-more-time-for-crime-prevention-traffic-enforcement-toronto-police-say.html" xr:uid="{35D2A589-D59A-48A0-88CE-9F9AC1B7798A}"/>
-    <hyperlink ref="E67" r:id="rId63" display="https://www.thestar.com/opinion/contributors/thebigdebate/2020/01/28/is-the-assault-weapon-buyback-a-misguided-idea.html" xr:uid="{E091E554-10F3-49FA-A9EC-91172F6C8564}"/>
-    <hyperlink ref="E68" r:id="rId64" display="https://www.thestar.com/news/gta/2020/01/27/police-seek-suspect-after-unknown-substance-placed-in-bottles-of-coke-ketchup-at-runnymede-and-annette-convenience-store.html" xr:uid="{9D4D5AB0-1595-42A1-A742-9A820A7EACF7}"/>
-    <hyperlink ref="E69" r:id="rId65" display="https://www.thestar.com/news/gta/2020/01/28/gta-mayors-and-police-chiefs-call-for-smarter-investment-on-unacceptable-youth-gun-violence.html" xr:uid="{00529F06-A41C-4A0D-A62D-A87ED4EECE86}"/>
-    <hyperlink ref="E70" r:id="rId66" display="https://www.thestar.com/news/gta/2020/01/28/76-year-old-pedestrian-killed-in-west-end-collision.html" xr:uid="{7DCA92A0-D0EA-498A-B22C-AF649DD9D6C0}"/>
-    <hyperlink ref="E71" r:id="rId67" display="https://www.thestar.com/politics/federal/2020/01/28/facial-recognition-technology-poses-enormous-potential-for-abuse-ndp-says.html" xr:uid="{53FBBB82-6811-4516-BBE5-323E3E87760D}"/>
-    <hyperlink ref="E72" r:id="rId68" display="https://www.thestar.com/news/crime/2020/01/29/toronto-police-charge-hamilton-man-in-alleged-phone-fraud-scam.html" xr:uid="{7C8C2791-B144-4EF9-94CC-D9D6510D7EA9}"/>
-    <hyperlink ref="E73" r:id="rId69" display="https://www.thestar.com/news/gta/2020/01/29/closing-arguments-begin-today-in-trial-of-michael-and-christian-theriault-accused-of-beating-dafonte-miller.html" xr:uid="{80B64758-045D-4A4A-80F0-9711ECE40C9B}"/>
-    <hyperlink ref="E74" r:id="rId70" display="https://www.thestar.com/news/gta/2020/01/29/ford-government-has-floated-giving-itself-more-control-over-judicial-appointments-documents-reveal.html" xr:uid="{9CAAD5F7-CE12-4722-B232-FC66AF3CF8D5}"/>
-    <hyperlink ref="E75" r:id="rId71" display="https://www.thestar.com/news/gta/2020/01/30/trial-to-begin-today-for-man-accused-of-killing-tess-richey.html" xr:uid="{422ACC18-CDA5-4B38-A735-5D2B2139BB77}"/>
-    <hyperlink ref="E76" r:id="rId72" display="https://www.thestar.com/news/gta/2020/01/30/tess-richeys-death-roiled-toronto-heres-what-you-need-to-know-as-the-trial-starts-for-man-accused-of-killing-her.html" xr:uid="{F4DF59A8-1DEC-40CA-9E1A-72F84774CDFA}"/>
-    <hyperlink ref="E77" r:id="rId73" xr:uid="{27B55D50-324E-43D5-83AE-4D8F114D0CE7}"/>
-    <hyperlink ref="E78" r:id="rId74" xr:uid="{C8C7D32D-A363-46CB-866E-04542CCF9E83}"/>
-    <hyperlink ref="E79" r:id="rId75" xr:uid="{756DC4D3-4018-4BA7-96D8-727043EEF647}"/>
-    <hyperlink ref="E80" r:id="rId76" xr:uid="{E1166A54-6CB5-4A96-8E30-26961F6447FE}"/>
-    <hyperlink ref="E81" r:id="rId77" xr:uid="{C7BD2CF7-DA17-4ABC-88CE-A2994715FD01}"/>
-    <hyperlink ref="E82" r:id="rId78" xr:uid="{9DF37D2B-1FFC-4074-AC3C-96C099EE25FE}"/>
-    <hyperlink ref="E83" r:id="rId79" xr:uid="{4BC6BB75-EB6D-4DC3-A080-52C8C5CD8D9D}"/>
-    <hyperlink ref="E84" r:id="rId80" xr:uid="{3339F8DC-02EA-41FA-B835-56069C85E2DF}"/>
-    <hyperlink ref="E85" r:id="rId81" xr:uid="{5C5A8D75-C676-4303-8828-45547A844265}"/>
-    <hyperlink ref="E86" r:id="rId82" xr:uid="{CDFCDFB4-65E4-493C-B430-E708DD2025D6}"/>
-    <hyperlink ref="E87" r:id="rId83" xr:uid="{AE02DA29-90C4-4A26-BF74-08A4AA95C453}"/>
-    <hyperlink ref="E88" r:id="rId84" xr:uid="{856FB2A2-E117-4C4D-A863-F790CAA70E37}"/>
-    <hyperlink ref="E89" r:id="rId85" xr:uid="{5EA1B039-4DB3-4DBC-9E2B-8DA23CA4533A}"/>
-    <hyperlink ref="E90" r:id="rId86" xr:uid="{EB996359-4915-4DF7-8538-6B8F46B90081}"/>
-    <hyperlink ref="E91" r:id="rId87" xr:uid="{11167A8C-FE10-40D2-BC2A-2D1515326841}"/>
-    <hyperlink ref="E92" r:id="rId88" xr:uid="{D0871398-45E1-425B-BFFF-F298A32A0F87}"/>
-    <hyperlink ref="E93" r:id="rId89" xr:uid="{A0E2F19C-C806-4A36-80FE-EAFDA050C6F9}"/>
-    <hyperlink ref="E94" r:id="rId90" xr:uid="{CDE43470-C943-406B-8730-A8E7DB00E43A}"/>
-    <hyperlink ref="E95" r:id="rId91" xr:uid="{E7DF5EC0-3C52-4E72-8AD3-8CB7BEDC84C8}"/>
-    <hyperlink ref="E96" r:id="rId92" xr:uid="{85FF8931-2BBF-4E02-B3E5-85C8F2807367}"/>
-    <hyperlink ref="E97" r:id="rId93" xr:uid="{014D4E9F-57AD-4440-B7A3-AB205A10CBDB}"/>
-    <hyperlink ref="E98" r:id="rId94" xr:uid="{615EEB29-ECE8-4ABD-BC4F-2DBB1AD699CB}"/>
-    <hyperlink ref="E99" r:id="rId95" xr:uid="{5C14E0C1-0522-44E5-A868-82586806DDEC}"/>
-    <hyperlink ref="E100" r:id="rId96" xr:uid="{FFFE8914-FB81-445E-AA20-BC154DF13A7C}"/>
-    <hyperlink ref="E101" r:id="rId97" xr:uid="{B005B92D-6681-439F-A806-CC4ACD02F09D}"/>
-    <hyperlink ref="E102" r:id="rId98" xr:uid="{D9E14557-9D10-4357-B35E-6AB86D5E0134}"/>
-    <hyperlink ref="E103" r:id="rId99" xr:uid="{E370C7ED-3F8D-4A9D-9480-08A96B1236D1}"/>
-    <hyperlink ref="E104" r:id="rId100" xr:uid="{2849E6EF-7E73-4C69-B782-3F8E0F833799}"/>
-    <hyperlink ref="E105" r:id="rId101" xr:uid="{0D2C701B-3583-4E12-AAAB-EBF9357A644B}"/>
-    <hyperlink ref="E106" r:id="rId102" xr:uid="{D542AE4E-FAC6-4195-8FAE-E972B8BA8C2C}"/>
-    <hyperlink ref="E107" r:id="rId103" xr:uid="{1107E1EF-789E-4DF0-962E-59590E20B13A}"/>
-    <hyperlink ref="E108" r:id="rId104" xr:uid="{66F89C1C-F965-415F-908C-89DC816B4A16}"/>
-    <hyperlink ref="E109" r:id="rId105" xr:uid="{3C9F560E-CBD3-4F0E-9A00-E84C3E8FB545}"/>
-    <hyperlink ref="E110" r:id="rId106" xr:uid="{1E3F7345-4FAC-481B-9933-CCFEB7AB04D8}"/>
-    <hyperlink ref="E111" r:id="rId107" xr:uid="{42E42022-F650-4429-B42A-ECFA794E5610}"/>
-    <hyperlink ref="E112" r:id="rId108" xr:uid="{7B429E14-A75F-45B1-9456-F20E4374EF50}"/>
-    <hyperlink ref="E113" r:id="rId109" xr:uid="{0A9FE779-1E7E-41AE-85AF-A642CAA8B5FD}"/>
-    <hyperlink ref="E114" r:id="rId110" display="https://www.thestar.com/news/gta/2020/02/18/toronto-police-board-to-mull-donation-to-purchase-new-armoured-vehicle.html" xr:uid="{CD77BEAC-70AF-4953-9BBD-9BE755D940B2}"/>
-    <hyperlink ref="E115" r:id="rId111" xr:uid="{8A0FA8C4-0A04-4E3E-B72E-2BE5ADCF7C2C}"/>
-    <hyperlink ref="E116" r:id="rId112" xr:uid="{B36DE44A-FE2B-4E7C-AE34-6B9515935E17}"/>
-    <hyperlink ref="E117" r:id="rId113" xr:uid="{6B069EB4-0B40-4800-AAEB-EC921DF2B2C2}"/>
-    <hyperlink ref="E118" r:id="rId114" xr:uid="{6BBC2A94-3887-4189-A054-AF93FAE358F3}"/>
-    <hyperlink ref="E119" r:id="rId115" xr:uid="{CA0157A6-230F-4CF2-9DBD-6FB9E8A17AD3}"/>
-    <hyperlink ref="E120" r:id="rId116" xr:uid="{2E0CC33A-809D-48FE-9970-2E4FF6702DD7}"/>
-    <hyperlink ref="E121" r:id="rId117" xr:uid="{899BAC2F-845F-4443-A5A1-136553396BD3}"/>
-    <hyperlink ref="E122" r:id="rId118" xr:uid="{A7EDDE35-3409-47F0-9A03-052D9FF9194F}"/>
-    <hyperlink ref="E123" r:id="rId119" xr:uid="{73D034EE-8596-4778-866F-9418AC0B7AE6}"/>
-    <hyperlink ref="E124" r:id="rId120" xr:uid="{763B3BFE-9B4F-42AE-9A51-74ED817C8C48}"/>
-    <hyperlink ref="E125" r:id="rId121" xr:uid="{77A091A2-948D-426C-B60D-50D4CE3CC202}"/>
-    <hyperlink ref="E126" r:id="rId122" xr:uid="{BE1267F0-64D3-453A-930A-0C0975DBFCC5}"/>
-    <hyperlink ref="E127" r:id="rId123" xr:uid="{D7CD5FF0-B181-416A-A66B-3A1AE39C0556}"/>
-    <hyperlink ref="E128" r:id="rId124" xr:uid="{3CD54160-9C62-4002-9792-433326DC5474}"/>
-    <hyperlink ref="E129" r:id="rId125" xr:uid="{8EEE9164-5519-4557-B731-6AFEB6CEF666}"/>
-    <hyperlink ref="E130" r:id="rId126" xr:uid="{7E7E38E9-2D27-4A97-B031-CA09BD0E7704}"/>
-    <hyperlink ref="E131" r:id="rId127" xr:uid="{CA75F700-1D1E-416E-96AA-46AEE1176489}"/>
-    <hyperlink ref="E132" r:id="rId128" xr:uid="{8A2463F0-86E1-4874-94A3-A30BDBC24631}"/>
-    <hyperlink ref="E133" r:id="rId129" xr:uid="{48D9D3C6-7DEF-452E-9CF4-152D851D116E}"/>
-    <hyperlink ref="E134" r:id="rId130" xr:uid="{A95A9D96-6991-44D7-9738-2D9FCDAF20F3}"/>
-    <hyperlink ref="E135" r:id="rId131" xr:uid="{839F7BCD-085B-4FD2-8CF7-FD2BFE01A2CB}"/>
-    <hyperlink ref="E136" r:id="rId132" xr:uid="{B9866069-61B8-4285-9B07-246D86A2DAD7}"/>
-    <hyperlink ref="E137" r:id="rId133" xr:uid="{619E3638-54DD-4A35-80F8-D02E84E74127}"/>
-    <hyperlink ref="E138" r:id="rId134" xr:uid="{C99994FF-D7BA-42C3-86DE-E29E742F79AB}"/>
-    <hyperlink ref="E139" r:id="rId135" xr:uid="{A6F23D52-4525-4331-A5EF-1E72A66C620B}"/>
-    <hyperlink ref="E140" r:id="rId136" xr:uid="{F3919DB0-3BCA-47F8-A881-D8FB680B71CB}"/>
-    <hyperlink ref="E141" r:id="rId137" xr:uid="{5E1576F6-BE25-491C-8057-C4C42E534064}"/>
-    <hyperlink ref="E142" r:id="rId138" xr:uid="{6B74A7E6-FD11-45DB-B0EC-D71EA4F628B2}"/>
-    <hyperlink ref="E143" r:id="rId139" xr:uid="{33F0CD18-C37D-447B-AE24-88194E2ADA18}"/>
-    <hyperlink ref="E144" r:id="rId140" xr:uid="{A3E35CBC-AECB-49F8-B475-ADF4596F912D}"/>
-    <hyperlink ref="E145" r:id="rId141" xr:uid="{35CEC1EA-28CB-4AE3-A89D-D60E426E0FD3}"/>
-    <hyperlink ref="E146" r:id="rId142" xr:uid="{A694FCE8-BF08-4C11-8131-71148D19BBD8}"/>
-    <hyperlink ref="E147" r:id="rId143" xr:uid="{7A4E0421-D1F8-445E-B0E2-14E7E534F375}"/>
-    <hyperlink ref="E148" r:id="rId144" xr:uid="{508B6B63-B44D-4A19-B103-39C7CE93F273}"/>
-    <hyperlink ref="E149" r:id="rId145" display="https://www.thestar.com/news/gta/2020/02/28/ttc-rider-struck-by-driver-after-exiting-streetcar-on-king-street.html" xr:uid="{18A06534-1B6B-40B9-936D-A9BF3E2EA2C4}"/>
-    <hyperlink ref="F12" r:id="rId146" xr:uid="{BCEFD877-981C-4547-8519-48D77C8A3370}"/>
-    <hyperlink ref="F11" r:id="rId147" xr:uid="{6AC07281-5C4E-4964-9D34-2DD09CF1413C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId148"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54B8A1C1-D417-4E22-AACD-315376640B13}">
-          <x14:formula1>
-            <xm:f>Portfolios!$B$2:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
